--- a/output/experiments/Aug2023_2/LOG-MPC-MSC-6h-bat-Jul-Sep.xlsx
+++ b/output/experiments/Aug2023_2/LOG-MPC-MSC-6h-bat-Jul-Sep.xlsx
@@ -250,214 +250,214 @@
     <t>unif</t>
   </si>
   <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
-  </si>
-  <si>
-    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-19_001.xlsx</t>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-01-07-08-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-08-07-15-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-15-07-22-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-22-07-29-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-07-29-08-05-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-05-08-12-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-12-08-19-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-19-08-26-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-08-26-09-02-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-02-09-09-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-09-09-16-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-16-09-23-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-23-09-30-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-09-30-10-07-Sum-ALL-Sum-2023-08-22_001.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1026,22 +1026,22 @@
         <v>76</v>
       </c>
       <c r="S2">
-        <v>121.414140074121</v>
+        <v>121.355685908784</v>
       </c>
       <c r="T2">
         <v>6.989583333333333</v>
       </c>
       <c r="U2">
-        <v>458.9985184</v>
+        <v>143.8823355</v>
       </c>
       <c r="V2" t="s">
         <v>78</v>
       </c>
       <c r="W2">
-        <v>121.414140074121</v>
+        <v>121.355685908784</v>
       </c>
       <c r="X2">
-        <v>103.414140074121</v>
+        <v>103.355685908784</v>
       </c>
       <c r="Y2">
         <v>18</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.06685681210056275</v>
+        <v>0.06681279543032158</v>
       </c>
       <c r="AF2">
-        <v>0.06685681210056275</v>
+        <v>0.06681279543032158</v>
       </c>
       <c r="AG2">
-        <v>0.05694509492268328</v>
+        <v>0.05690283275539808</v>
       </c>
       <c r="AI2">
-        <v>49.95117690503512</v>
+        <v>49.937293800773</v>
       </c>
       <c r="AJ2">
-        <v>93.38385700321993</v>
+        <v>93.39311699269743</v>
       </c>
       <c r="AL2">
         <v>36.05365126676602</v>
@@ -1083,34 +1083,34 @@
         <v>1500.323721013413</v>
       </c>
       <c r="AN2">
-        <v>315.708725934487</v>
+        <v>316.0302442288391</v>
       </c>
       <c r="AO2">
-        <v>1816.0324469479</v>
+        <v>1816.353965242252</v>
       </c>
       <c r="AP2">
-        <v>1201.276719021293</v>
+        <v>1201.254856631088</v>
       </c>
       <c r="AQ2">
-        <v>766.2853211683828</v>
+        <v>766.436219236012</v>
       </c>
       <c r="AR2">
-        <v>98.94586453205991</v>
+        <v>98.69492078901413</v>
       </c>
       <c r="AS2">
-        <v>106.7372643487721</v>
+        <v>106.6965872873761</v>
       </c>
       <c r="AT2">
-        <v>13.35340734555222</v>
+        <v>13.3034702946787</v>
       </c>
       <c r="AU2">
-        <v>83.25196150839186</v>
+        <v>83.22882300128833</v>
       </c>
       <c r="AV2">
-        <v>235.4273137871689</v>
+        <v>235.7447741046291</v>
       </c>
       <c r="AW2">
-        <v>39.92089383413408</v>
+        <v>39.97472488468643</v>
       </c>
     </row>
     <row r="3" spans="1:49">
@@ -1169,22 +1169,22 @@
         <v>76</v>
       </c>
       <c r="S3">
-        <v>209.6373650748478</v>
+        <v>121.458523431537</v>
       </c>
       <c r="T3">
         <v>6.989583333333333</v>
       </c>
       <c r="U3">
-        <v>460.3163615999999</v>
+        <v>143.7372709</v>
       </c>
       <c r="V3" t="s">
         <v>79</v>
       </c>
       <c r="W3">
-        <v>209.6373650748478</v>
+        <v>121.458523431537</v>
       </c>
       <c r="X3">
-        <v>191.6373650748478</v>
+        <v>103.458523431537</v>
       </c>
       <c r="Y3">
         <v>18</v>
@@ -1205,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.1153733899934037</v>
+        <v>0.06686544852625656</v>
       </c>
       <c r="AF3">
-        <v>0.1153733899934037</v>
+        <v>0.06686544852625656</v>
       </c>
       <c r="AG3">
-        <v>0.1054671358333221</v>
+        <v>0.05695607337934853</v>
       </c>
       <c r="AI3">
-        <v>106.7308338005491</v>
+        <v>49.95117690503512</v>
       </c>
       <c r="AJ3">
-        <v>84.90653127429864</v>
+        <v>93.428240360636</v>
       </c>
       <c r="AL3">
         <v>36.05365126676602</v>
@@ -1226,34 +1226,34 @@
         <v>1500.323721013413</v>
       </c>
       <c r="AN3">
-        <v>316.7102162474529</v>
+        <v>316.1379360686151</v>
       </c>
       <c r="AO3">
-        <v>1817.033937260866</v>
+        <v>1816.461657082028</v>
       </c>
       <c r="AP3">
-        <v>1201.276719021293</v>
+        <v>1201.254856631088</v>
       </c>
       <c r="AQ3">
-        <v>846.9209032621784</v>
+        <v>766.6413494523269</v>
       </c>
       <c r="AR3">
-        <v>205.7654248115259</v>
+        <v>98.8370957282703</v>
       </c>
       <c r="AS3">
-        <v>115.198869253223</v>
+        <v>106.7335699011099</v>
       </c>
       <c r="AT3">
-        <v>30.29233797892438</v>
+        <v>13.30532954047388</v>
       </c>
       <c r="AU3">
-        <v>177.8847230009152</v>
+        <v>83.25196150839186</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>235.4273137871689</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>39.92089383413408</v>
       </c>
     </row>
     <row r="4" spans="1:49">
@@ -1312,22 +1312,22 @@
         <v>76</v>
       </c>
       <c r="S4">
-        <v>204.1617143840688</v>
+        <v>121.4306112697316</v>
       </c>
       <c r="T4">
         <v>6.989583333333333</v>
       </c>
       <c r="U4">
-        <v>357.0001583</v>
+        <v>143.1955296</v>
       </c>
       <c r="V4" t="s">
         <v>80</v>
       </c>
       <c r="W4">
-        <v>204.1617143840688</v>
+        <v>121.4306112697316</v>
       </c>
       <c r="X4">
-        <v>186.1617143840688</v>
+        <v>103.4306112697316</v>
       </c>
       <c r="Y4">
         <v>18</v>
@@ -1348,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.1123598795803658</v>
+        <v>0.06685447035063183</v>
       </c>
       <c r="AF4">
-        <v>0.1123598795803658</v>
+        <v>0.06685447035063183</v>
       </c>
       <c r="AG4">
-        <v>0.1024536254202841</v>
+        <v>0.05694444475059325</v>
       </c>
       <c r="AI4">
-        <v>101.4175020027225</v>
+        <v>49.95117690503512</v>
       </c>
       <c r="AJ4">
-        <v>84.7442123813463</v>
+        <v>93.40032819883058</v>
       </c>
       <c r="AL4">
         <v>36.05365126676602</v>
@@ -1369,34 +1369,34 @@
         <v>1500.323721013413</v>
       </c>
       <c r="AN4">
-        <v>316.7102162474529</v>
+        <v>316.0187110313573</v>
       </c>
       <c r="AO4">
-        <v>1817.033937260866</v>
+        <v>1816.34243204477</v>
       </c>
       <c r="AP4">
-        <v>1201.276719021293</v>
+        <v>1201.254856631088</v>
       </c>
       <c r="AQ4">
-        <v>842.1458563184489</v>
+        <v>766.4269419581818</v>
       </c>
       <c r="AR4">
-        <v>201.649510173488</v>
+        <v>98.72774933695663</v>
       </c>
       <c r="AS4">
-        <v>113.8460262993254</v>
+        <v>106.6937827212078</v>
       </c>
       <c r="AT4">
-        <v>29.10181391797912</v>
+        <v>13.29345452237721</v>
       </c>
       <c r="AU4">
-        <v>169.0291700045375</v>
+        <v>83.25196150839186</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>235.4273137871689</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>39.92089383413408</v>
       </c>
     </row>
     <row r="5" spans="1:49">
@@ -1455,22 +1455,22 @@
         <v>76</v>
       </c>
       <c r="S5">
-        <v>213.0753355601304</v>
+        <v>121.4574682169624</v>
       </c>
       <c r="T5">
         <v>6.989583333333333</v>
       </c>
       <c r="U5">
-        <v>354.0831227</v>
+        <v>142.7526979</v>
       </c>
       <c r="V5" t="s">
         <v>81</v>
       </c>
       <c r="W5">
-        <v>213.0753355601304</v>
+        <v>121.4574682169624</v>
       </c>
       <c r="X5">
-        <v>195.0753355601304</v>
+        <v>103.4574682169624</v>
       </c>
       <c r="Y5">
         <v>18</v>
@@ -1491,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.1172654682946298</v>
+        <v>0.06686486760864095</v>
       </c>
       <c r="AF5">
-        <v>0.1172654682946298</v>
+        <v>0.06686486760864095</v>
       </c>
       <c r="AG5">
-        <v>0.1073592141345481</v>
+        <v>0.05695549246173293</v>
       </c>
       <c r="AI5">
-        <v>109.7183444499827</v>
+        <v>49.95117690503512</v>
       </c>
       <c r="AJ5">
-        <v>85.35699111014762</v>
+        <v>93.42718514606133</v>
       </c>
       <c r="AL5">
         <v>36.05365126676602</v>
@@ -1512,34 +1512,34 @@
         <v>1500.323721013413</v>
       </c>
       <c r="AN5">
-        <v>316.7102162474528</v>
+        <v>316.1379360686151</v>
       </c>
       <c r="AO5">
-        <v>1817.033937260866</v>
+        <v>1816.461657082028</v>
       </c>
       <c r="AP5">
-        <v>1201.276719021293</v>
+        <v>1201.254856631088</v>
       </c>
       <c r="AQ5">
-        <v>849.2317750261287</v>
+        <v>766.6413494523269</v>
       </c>
       <c r="AR5">
-        <v>208.2140338328659</v>
+        <v>98.8370957282703</v>
       </c>
       <c r="AS5">
-        <v>115.9024049639739</v>
+        <v>106.7325146865352</v>
       </c>
       <c r="AT5">
-        <v>30.54541385382633</v>
+        <v>13.30532954047388</v>
       </c>
       <c r="AU5">
-        <v>182.8639074166379</v>
+        <v>83.25196150839186</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>235.4273137871689</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>39.92089383413408</v>
       </c>
     </row>
     <row r="6" spans="1:49">
@@ -1598,22 +1598,22 @@
         <v>77</v>
       </c>
       <c r="S6">
-        <v>171.4372753205008</v>
+        <v>171.4394283878677</v>
       </c>
       <c r="T6">
         <v>6.989583333333333</v>
       </c>
       <c r="U6">
-        <v>285.4233455999999</v>
+        <v>28.8632358000001</v>
       </c>
       <c r="V6" t="s">
         <v>82</v>
       </c>
       <c r="W6">
-        <v>171.4372753205008</v>
+        <v>171.4394283878677</v>
       </c>
       <c r="X6">
-        <v>153.4372753205008</v>
+        <v>153.4394283878677</v>
       </c>
       <c r="Y6">
         <v>18</v>
@@ -1634,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.09439174121879258</v>
+        <v>0.09439292667730705</v>
       </c>
       <c r="AF6">
-        <v>0.09439174121879258</v>
+        <v>0.09439292667730705</v>
       </c>
       <c r="AG6">
-        <v>0.08448111158027376</v>
+        <v>0.08448229703878822</v>
       </c>
       <c r="AI6">
-        <v>58.89747209738825</v>
+        <v>58.89760102207335</v>
       </c>
       <c r="AJ6">
-        <v>109.2408953792301</v>
+        <v>109.2429195219119</v>
       </c>
       <c r="AL6">
         <v>36.05365126676602</v>
@@ -1661,22 +1661,22 @@
         <v>1816.231728611963</v>
       </c>
       <c r="AP6">
-        <v>1201.276719021293</v>
+        <v>1201.254856631088</v>
       </c>
       <c r="AQ6">
-        <v>694.7978618703387</v>
+        <v>694.8014881534353</v>
       </c>
       <c r="AR6">
-        <v>57.17802948216132</v>
+        <v>57.15979337505154</v>
       </c>
       <c r="AS6">
-        <v>114.8366405593486</v>
+        <v>114.8370868259778</v>
       </c>
       <c r="AT6">
-        <v>5.595745180118552</v>
+        <v>5.594167304065871</v>
       </c>
       <c r="AU6">
-        <v>98.16245349564707</v>
+        <v>98.16266837012225</v>
       </c>
       <c r="AV6">
         <v>86.69742342024026</v>
@@ -1741,22 +1741,22 @@
         <v>76</v>
       </c>
       <c r="S7">
-        <v>204.3818030495609</v>
+        <v>204.353771245447</v>
       </c>
       <c r="T7">
         <v>6.989583333333333</v>
       </c>
       <c r="U7">
-        <v>531.4189467</v>
+        <v>167.9106069000001</v>
       </c>
       <c r="V7" t="s">
         <v>83</v>
       </c>
       <c r="W7">
-        <v>204.3818030495609</v>
+        <v>204.353771245447</v>
       </c>
       <c r="X7">
-        <v>186.3818030495609</v>
+        <v>186.353771245447</v>
       </c>
       <c r="Y7">
         <v>18</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.1003336692514228</v>
+        <v>0.1003246056044712</v>
       </c>
       <c r="AF7">
-        <v>0.1003336692514228</v>
+        <v>0.1003246056044712</v>
       </c>
       <c r="AG7">
-        <v>0.09149723655742381</v>
+        <v>0.09148775914025055</v>
       </c>
       <c r="AI7">
-        <v>54.85653413450005</v>
+        <v>54.85653413450017</v>
       </c>
       <c r="AJ7">
-        <v>132.458693701184</v>
+        <v>132.4306618970698</v>
       </c>
       <c r="AL7">
         <v>44.49478390461997</v>
@@ -1798,34 +1798,34 @@
         <v>1605.345993442623</v>
       </c>
       <c r="AN7">
-        <v>431.6751239392927</v>
+        <v>431.5797439094863</v>
       </c>
       <c r="AO7">
-        <v>2037.021117381916</v>
+        <v>2036.92573735211</v>
       </c>
       <c r="AP7">
-        <v>1053.476977737072</v>
+        <v>1053.457805198058</v>
       </c>
       <c r="AQ7">
-        <v>1076.97188520368</v>
+        <v>1076.675306003015</v>
       </c>
       <c r="AR7">
-        <v>69.71948553763383</v>
+        <v>69.48872694251222</v>
       </c>
       <c r="AS7">
-        <v>144.3577445900927</v>
+        <v>144.3017221422158</v>
       </c>
       <c r="AT7">
-        <v>11.89905088890871</v>
+        <v>11.87106024514598</v>
       </c>
       <c r="AU7">
-        <v>91.42755689083343</v>
+        <v>91.42755689083361</v>
       </c>
       <c r="AV7">
-        <v>5.504728700022769</v>
+        <v>5.504728700021865</v>
       </c>
       <c r="AW7">
-        <v>0.9334247861230822</v>
+        <v>0.9334247861229289</v>
       </c>
     </row>
     <row r="8" spans="1:49">
@@ -1884,22 +1884,22 @@
         <v>76</v>
       </c>
       <c r="S8">
-        <v>268.3275503856871</v>
+        <v>204.3418672079467</v>
       </c>
       <c r="T8">
         <v>6.989583333333333</v>
       </c>
       <c r="U8">
-        <v>547.1924477000001</v>
+        <v>498.5147734</v>
       </c>
       <c r="V8" t="s">
         <v>84</v>
       </c>
       <c r="W8">
-        <v>268.3275503856871</v>
+        <v>204.3418672079467</v>
       </c>
       <c r="X8">
-        <v>250.3275503856871</v>
+        <v>186.3418672079467</v>
       </c>
       <c r="Y8">
         <v>18</v>
@@ -1920,19 +1920,19 @@
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.1316715169550185</v>
+        <v>0.1003140642305061</v>
       </c>
       <c r="AF8">
-        <v>0.1316715169550185</v>
+        <v>0.1003140642305061</v>
       </c>
       <c r="AG8">
-        <v>0.122838703098284</v>
+        <v>0.09147763153650702</v>
       </c>
       <c r="AI8">
-        <v>120.7340762946657</v>
+        <v>54.85653413450017</v>
       </c>
       <c r="AJ8">
-        <v>129.5934740910214</v>
+        <v>132.4187578595695</v>
       </c>
       <c r="AL8">
         <v>44.49478390461997</v>
@@ -1941,34 +1941,34 @@
         <v>1605.345993442623</v>
       </c>
       <c r="AN8">
-        <v>432.5096992000975</v>
+        <v>431.6751239392927</v>
       </c>
       <c r="AO8">
-        <v>2037.855692642721</v>
+        <v>2037.021117381916</v>
       </c>
       <c r="AP8">
-        <v>1053.476977737072</v>
+        <v>1053.457805198058</v>
       </c>
       <c r="AQ8">
-        <v>1100.787676807772</v>
+        <v>1076.918671068863</v>
       </c>
       <c r="AR8">
-        <v>91.08011304629696</v>
+        <v>69.64123865637212</v>
       </c>
       <c r="AS8">
-        <v>144.3042708557036</v>
+        <v>144.3167211710404</v>
       </c>
       <c r="AT8">
-        <v>14.71079676468219</v>
+        <v>11.89796331147087</v>
       </c>
       <c r="AU8">
-        <v>201.2234604911094</v>
+        <v>91.42755689083361</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>5.504728700021865</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>0.9334247861229289</v>
       </c>
     </row>
     <row r="9" spans="1:49">
@@ -2027,22 +2027,22 @@
         <v>76</v>
       </c>
       <c r="S9">
-        <v>266.6427357254869</v>
+        <v>204.3716302600434</v>
       </c>
       <c r="T9">
         <v>6.989583333333333</v>
       </c>
       <c r="U9">
-        <v>547.9621664000001</v>
+        <v>505.9168718</v>
       </c>
       <c r="V9" t="s">
         <v>85</v>
       </c>
       <c r="W9">
-        <v>266.6427357254869</v>
+        <v>204.3716302600434</v>
       </c>
       <c r="X9">
-        <v>248.6427357254869</v>
+        <v>186.3716302600434</v>
       </c>
       <c r="Y9">
         <v>18</v>
@@ -2063,19 +2063,19 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.1308447583840938</v>
+        <v>0.1003286752975405</v>
       </c>
       <c r="AF9">
-        <v>0.1308447583840938</v>
+        <v>0.1003286752975405</v>
       </c>
       <c r="AG9">
-        <v>0.1220119445273593</v>
+        <v>0.0914922426035415</v>
       </c>
       <c r="AI9">
-        <v>118.792482120667</v>
+        <v>54.85653413450024</v>
       </c>
       <c r="AJ9">
-        <v>129.8502536048198</v>
+        <v>132.448520911666</v>
       </c>
       <c r="AL9">
         <v>44.49478390461997</v>
@@ -2084,34 +2084,34 @@
         <v>1605.345993442623</v>
       </c>
       <c r="AN9">
-        <v>432.5096992000973</v>
+        <v>431.6751239392927</v>
       </c>
       <c r="AO9">
-        <v>2037.85569264272</v>
+        <v>2037.021117381916</v>
       </c>
       <c r="AP9">
-        <v>1053.476977737072</v>
+        <v>1053.457805198058</v>
       </c>
       <c r="AQ9">
-        <v>1097.926192522891</v>
+        <v>1076.886415866945</v>
       </c>
       <c r="AR9">
-        <v>88.44270547409624</v>
+        <v>69.61026076045069</v>
       </c>
       <c r="AS9">
-        <v>144.1998292468026</v>
+        <v>144.3421580050908</v>
       </c>
       <c r="AT9">
-        <v>14.34957564198279</v>
+        <v>11.89363709342482</v>
       </c>
       <c r="AU9">
-        <v>197.9874702011118</v>
+        <v>91.42755689083373</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>5.50472870002133</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>0.9334247861228382</v>
       </c>
     </row>
     <row r="10" spans="1:49">
@@ -2170,22 +2170,22 @@
         <v>76</v>
       </c>
       <c r="S10">
-        <v>272.3203845059558</v>
+        <v>204.3190573916194</v>
       </c>
       <c r="T10">
         <v>6.989583333333333</v>
       </c>
       <c r="U10">
-        <v>412.0667406999999</v>
+        <v>490.5809242</v>
       </c>
       <c r="V10" t="s">
         <v>86</v>
       </c>
       <c r="W10">
-        <v>272.3203845059558</v>
+        <v>204.3190573916194</v>
       </c>
       <c r="X10">
-        <v>254.3203845059558</v>
+        <v>186.3190573916194</v>
       </c>
       <c r="Y10">
         <v>18</v>
@@ -2206,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.1336308480964158</v>
+        <v>0.1003028665967983</v>
       </c>
       <c r="AF10">
-        <v>0.1336308480964158</v>
+        <v>0.1003028665967983</v>
       </c>
       <c r="AG10">
-        <v>0.1247980342396813</v>
+        <v>0.09146643390279929</v>
       </c>
       <c r="AI10">
-        <v>123.6129575265178</v>
+        <v>54.85653413450017</v>
       </c>
       <c r="AJ10">
-        <v>130.7074269794379</v>
+        <v>132.3959480432422</v>
       </c>
       <c r="AL10">
         <v>44.49478390461997</v>
@@ -2227,34 +2227,34 @@
         <v>1605.345993442623</v>
       </c>
       <c r="AN10">
-        <v>432.5096992000975</v>
+        <v>431.6751239392926</v>
       </c>
       <c r="AO10">
-        <v>2037.855692642721</v>
+        <v>2037.021117381916</v>
       </c>
       <c r="AP10">
-        <v>1053.476977737072</v>
+        <v>1053.457805198058</v>
       </c>
       <c r="AQ10">
-        <v>1101.196553727143</v>
+        <v>1076.770686032822</v>
       </c>
       <c r="AR10">
-        <v>91.38819233680606</v>
+        <v>69.48872694251219</v>
       </c>
       <c r="AS10">
-        <v>145.2473459613888</v>
+        <v>144.2670082883881</v>
       </c>
       <c r="AT10">
-        <v>14.53991898195083</v>
+        <v>11.87106024514598</v>
       </c>
       <c r="AU10">
-        <v>206.0215958775298</v>
+        <v>91.42755689083361</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>5.504728700021865</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>0.9334247861229289</v>
       </c>
     </row>
     <row r="11" spans="1:49">
@@ -2313,22 +2313,22 @@
         <v>77</v>
       </c>
       <c r="S11">
-        <v>270.2337737297363</v>
+        <v>270.2357657576886</v>
       </c>
       <c r="T11">
         <v>6.989583333333333</v>
       </c>
       <c r="U11">
-        <v>335.1577918999999</v>
+        <v>283.0237115</v>
       </c>
       <c r="V11" t="s">
         <v>87</v>
       </c>
       <c r="W11">
-        <v>270.2337737297363</v>
+        <v>270.2357657576886</v>
       </c>
       <c r="X11">
-        <v>252.2337737297363</v>
+        <v>252.2357657576886</v>
       </c>
       <c r="Y11">
         <v>18</v>
@@ -2349,19 +2349,19 @@
         <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.1326679333222031</v>
+        <v>0.1326689112837211</v>
       </c>
       <c r="AF11">
-        <v>0.1326679333222031</v>
+        <v>0.1326689112837211</v>
       </c>
       <c r="AG11">
-        <v>0.1238310556557278</v>
+        <v>0.1238320336172457</v>
       </c>
       <c r="AI11">
-        <v>78.64122549562099</v>
+        <v>78.6413116347066</v>
       </c>
       <c r="AJ11">
-        <v>173.5925482341153</v>
+        <v>173.594454122982</v>
       </c>
       <c r="AL11">
         <v>44.49478390461997</v>
@@ -2376,22 +2376,22 @@
         <v>2036.918545142591</v>
       </c>
       <c r="AP11">
-        <v>1053.476977737072</v>
+        <v>1053.457805198058</v>
       </c>
       <c r="AQ11">
-        <v>993.0922880152052</v>
+        <v>993.0981861558832</v>
       </c>
       <c r="AR11">
-        <v>4.991302547254411</v>
+        <v>4.978028148918507</v>
       </c>
       <c r="AS11">
-        <v>174.0400165375518</v>
+        <v>174.0408174995919</v>
       </c>
       <c r="AT11">
-        <v>0.4474683034365217</v>
+        <v>0.4463633766098488</v>
       </c>
       <c r="AU11">
-        <v>131.0687091593683</v>
+        <v>131.068852724511</v>
       </c>
       <c r="AV11">
         <v>0</v>
@@ -2456,22 +2456,22 @@
         <v>76</v>
       </c>
       <c r="S12">
-        <v>158.9564388968086</v>
+        <v>159.4595514837046</v>
       </c>
       <c r="T12">
         <v>6.989583333333333</v>
       </c>
       <c r="U12">
-        <v>407.1609503</v>
+        <v>366.6767255</v>
       </c>
       <c r="V12" t="s">
         <v>88</v>
       </c>
       <c r="W12">
-        <v>158.9564388968086</v>
+        <v>159.4595514837046</v>
       </c>
       <c r="X12">
-        <v>140.9564388968086</v>
+        <v>141.4595514837046</v>
       </c>
       <c r="Y12">
         <v>18</v>
@@ -2492,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="AE12">
-        <v>0.08071761460996338</v>
+        <v>0.080940496871411</v>
       </c>
       <c r="AF12">
-        <v>0.08071761460996338</v>
+        <v>0.080940496871411</v>
       </c>
       <c r="AG12">
-        <v>0.07157726727290113</v>
+        <v>0.07180382910752177</v>
       </c>
       <c r="AI12">
-        <v>49.03295755098254</v>
+        <v>49.0330420297218</v>
       </c>
       <c r="AJ12">
-        <v>113.2258241160711</v>
+        <v>113.2367969127036</v>
       </c>
       <c r="AL12">
         <v>40.63189269746647</v>
@@ -2513,34 +2513,34 @@
         <v>1585.489641728763</v>
       </c>
       <c r="AN12">
-        <v>383.8009482484563</v>
+        <v>384.5940326652266</v>
       </c>
       <c r="AO12">
-        <v>1969.290589977219</v>
+        <v>1970.08367439399</v>
       </c>
       <c r="AP12">
-        <v>1189.276367766379</v>
+        <v>1189.254723774112</v>
       </c>
       <c r="AQ12">
-        <v>918.6664216791526</v>
+        <v>918.3834296553634</v>
       </c>
       <c r="AR12">
-        <v>99.84474041996603</v>
+        <v>99.17736760486849</v>
       </c>
       <c r="AS12">
-        <v>127.0119002848115</v>
+        <v>126.9205384423174</v>
       </c>
       <c r="AT12">
-        <v>13.78607616874034</v>
+        <v>13.68374152961379</v>
       </c>
       <c r="AU12">
-        <v>81.72159591830423</v>
+        <v>81.721736716203</v>
       </c>
       <c r="AV12">
-        <v>125.6272807069301</v>
+        <v>122.7254604043043</v>
       </c>
       <c r="AW12">
-        <v>21.30234277024508</v>
+        <v>20.81028745872084</v>
       </c>
     </row>
     <row r="13" spans="1:49">
@@ -2599,22 +2599,22 @@
         <v>76</v>
       </c>
       <c r="S13">
-        <v>242.8625114251895</v>
+        <v>159.0378438808377</v>
       </c>
       <c r="T13">
         <v>6.989583333333333</v>
       </c>
       <c r="U13">
-        <v>543.4015147</v>
+        <v>392.3291165000001</v>
       </c>
       <c r="V13" t="s">
         <v>89</v>
       </c>
       <c r="W13">
-        <v>242.8625114251895</v>
+        <v>159.0378438808377</v>
       </c>
       <c r="X13">
-        <v>224.8625114251895</v>
+        <v>141.0378438808377</v>
       </c>
       <c r="Y13">
         <v>18</v>
@@ -2635,19 +2635,19 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0.1233428543795232</v>
+        <v>0.08074723743016839</v>
       </c>
       <c r="AF13">
-        <v>0.1233428543795232</v>
+        <v>0.08074723743016839</v>
       </c>
       <c r="AG13">
-        <v>0.1142011743161706</v>
+        <v>0.07160821593518346</v>
       </c>
       <c r="AI13">
-        <v>119.1162895776715</v>
+        <v>49.03304202972183</v>
       </c>
       <c r="AJ13">
-        <v>105.746221847518</v>
+        <v>113.2305304424743</v>
       </c>
       <c r="AL13">
         <v>40.63189269746647</v>
@@ -2656,34 +2656,34 @@
         <v>1585.489641728763</v>
       </c>
       <c r="AN13">
-        <v>383.513853827671</v>
+        <v>384.0866427648872</v>
       </c>
       <c r="AO13">
-        <v>1969.003495556434</v>
+        <v>1969.576284493651</v>
       </c>
       <c r="AP13">
-        <v>1189.276367766379</v>
+        <v>1189.254723774112</v>
       </c>
       <c r="AQ13">
-        <v>958.8912673215116</v>
+        <v>918.6317725718563</v>
       </c>
       <c r="AR13">
-        <v>153.7108826994332</v>
+        <v>99.55369334549663</v>
       </c>
       <c r="AS13">
-        <v>127.6700720851402</v>
+        <v>126.986456721319</v>
       </c>
       <c r="AT13">
-        <v>21.92385023762221</v>
+        <v>13.75592627884468</v>
       </c>
       <c r="AU13">
-        <v>198.5271492961192</v>
+        <v>81.72173671620307</v>
       </c>
       <c r="AV13">
-        <v>0</v>
+        <v>125.1754604043031</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>21.2257285913585</v>
       </c>
     </row>
     <row r="14" spans="1:49">
@@ -2742,22 +2742,22 @@
         <v>76</v>
       </c>
       <c r="S14">
-        <v>249.2171841670765</v>
+        <v>159.4400921140173</v>
       </c>
       <c r="T14">
         <v>6.989583333333333</v>
       </c>
       <c r="U14">
-        <v>538.0894134999999</v>
+        <v>369.2354831</v>
       </c>
       <c r="V14" t="s">
         <v>90</v>
       </c>
       <c r="W14">
-        <v>249.2171841670765</v>
+        <v>159.4400921140173</v>
       </c>
       <c r="X14">
-        <v>231.2171841670765</v>
+        <v>141.4400921140173</v>
       </c>
       <c r="Y14">
         <v>18</v>
@@ -2778,19 +2778,19 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>0.1265702091080587</v>
+        <v>0.08093500819586502</v>
       </c>
       <c r="AF14">
-        <v>0.1265702091080587</v>
+        <v>0.08093500819586502</v>
       </c>
       <c r="AG14">
-        <v>0.1174285290447061</v>
+        <v>0.07179784496289489</v>
       </c>
       <c r="AI14">
-        <v>125.1599453488475</v>
+        <v>49.0330420297218</v>
       </c>
       <c r="AJ14">
-        <v>106.057238818229</v>
+        <v>113.2173375430164</v>
       </c>
       <c r="AL14">
         <v>40.63189269746647</v>
@@ -2799,34 +2799,34 @@
         <v>1585.489641728763</v>
       </c>
       <c r="AN14">
-        <v>383.513853827671</v>
+        <v>384.4872034970721</v>
       </c>
       <c r="AO14">
-        <v>1969.003495556434</v>
+        <v>1969.976845225835</v>
       </c>
       <c r="AP14">
-        <v>1189.276367766379</v>
+        <v>1189.254723774112</v>
       </c>
       <c r="AQ14">
-        <v>960.9033500906999</v>
+        <v>919.4734758336983</v>
       </c>
       <c r="AR14">
-        <v>155.725806378066</v>
+        <v>100.3289815810256</v>
       </c>
       <c r="AS14">
-        <v>128.2516800972431</v>
+        <v>127.0994125606288</v>
       </c>
       <c r="AT14">
-        <v>22.19444127901409</v>
+        <v>13.88207501761247</v>
       </c>
       <c r="AU14">
-        <v>208.5999089147458</v>
+        <v>81.721736716203</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>122.7254604043043</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>20.81028745872084</v>
       </c>
     </row>
     <row r="15" spans="1:49">
@@ -2885,22 +2885,22 @@
         <v>76</v>
       </c>
       <c r="S15">
-        <v>246.4900029546591</v>
+        <v>159.4298644980894</v>
       </c>
       <c r="T15">
         <v>6.989583333333333</v>
       </c>
       <c r="U15">
-        <v>527.164059</v>
+        <v>375.6182371</v>
       </c>
       <c r="V15" t="s">
         <v>91</v>
       </c>
       <c r="W15">
-        <v>246.4900029546591</v>
+        <v>159.4298644980894</v>
       </c>
       <c r="X15">
-        <v>228.4900029546591</v>
+        <v>141.4298644980894</v>
       </c>
       <c r="Y15">
         <v>18</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>0.1251851525459084</v>
+        <v>0.08092542797560667</v>
       </c>
       <c r="AF15">
-        <v>0.1251851525459084</v>
+        <v>0.08092542797560667</v>
       </c>
       <c r="AG15">
-        <v>0.1160434724825557</v>
+        <v>0.07178876021171744</v>
       </c>
       <c r="AI15">
-        <v>121.4936445576715</v>
+        <v>49.03304202972191</v>
       </c>
       <c r="AJ15">
-        <v>106.9963583969876</v>
+        <v>113.2071099270879</v>
       </c>
       <c r="AL15">
         <v>40.63189269746647</v>
@@ -2942,34 +2942,34 @@
         <v>1585.489641728763</v>
       </c>
       <c r="AN15">
-        <v>383.5138538276711</v>
+        <v>384.594032665227</v>
       </c>
       <c r="AO15">
-        <v>1969.003495556434</v>
+        <v>1970.08367439399</v>
       </c>
       <c r="AP15">
-        <v>1189.276367766379</v>
+        <v>1189.254723774112</v>
       </c>
       <c r="AQ15">
-        <v>962.2135759253581</v>
+        <v>919.8886926688133</v>
       </c>
       <c r="AR15">
-        <v>157.0178131904208</v>
+        <v>100.6275224352828</v>
       </c>
       <c r="AS15">
-        <v>128.8912938813133</v>
+        <v>127.1215851417226</v>
       </c>
       <c r="AT15">
-        <v>21.89493548432572</v>
+        <v>13.91447521463466</v>
       </c>
       <c r="AU15">
-        <v>202.4894075961192</v>
+        <v>81.72173671620318</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>122.7254604043018</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>20.81028745872043</v>
       </c>
     </row>
     <row r="16" spans="1:49">
@@ -3028,22 +3028,22 @@
         <v>77</v>
       </c>
       <c r="S16">
-        <v>209.1627798175096</v>
+        <v>209.1652316077867</v>
       </c>
       <c r="T16">
         <v>6.989583333333333</v>
       </c>
       <c r="U16">
-        <v>328.2671182999998</v>
+        <v>286.524891</v>
       </c>
       <c r="V16" t="s">
         <v>92</v>
       </c>
       <c r="W16">
-        <v>209.1627798175096</v>
+        <v>209.1652316077867</v>
       </c>
       <c r="X16">
-        <v>191.1627798175096</v>
+        <v>191.1652316077867</v>
       </c>
       <c r="Y16">
         <v>18</v>
@@ -3064,19 +3064,19 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0.1062265648155293</v>
+        <v>0.1062278099952836</v>
       </c>
       <c r="AF16">
-        <v>0.1062265648155293</v>
+        <v>0.1062278099952836</v>
       </c>
       <c r="AG16">
-        <v>0.09708498537989653</v>
+        <v>0.09708623055965085</v>
       </c>
       <c r="AI16">
-        <v>61.87752513561907</v>
+        <v>61.8779226529971</v>
       </c>
       <c r="AJ16">
-        <v>143.6049221379983</v>
+        <v>143.6069764108974</v>
       </c>
       <c r="AL16">
         <v>40.63189269746647</v>
@@ -3091,22 +3091,22 @@
         <v>1969.02516974673</v>
       </c>
       <c r="AP16">
-        <v>1189.276367766379</v>
+        <v>1189.254723774112</v>
       </c>
       <c r="AQ16">
-        <v>852.2761330605574</v>
+        <v>852.2807583485123</v>
       </c>
       <c r="AR16">
-        <v>52.67761278420589</v>
+        <v>52.66059407989422</v>
       </c>
       <c r="AS16">
-        <v>148.5338258424908</v>
+        <v>148.5344494370575</v>
       </c>
       <c r="AT16">
-        <v>4.928903704492492</v>
+        <v>4.927473026160071</v>
       </c>
       <c r="AU16">
-        <v>103.1292085593651</v>
+        <v>103.1298710883285</v>
       </c>
       <c r="AV16">
         <v>84.44803008479848</v>
@@ -3171,22 +3171,22 @@
         <v>76</v>
       </c>
       <c r="S17">
-        <v>180.0745243059336</v>
+        <v>180.3422436118756</v>
       </c>
       <c r="T17">
         <v>6.989583333333333</v>
       </c>
       <c r="U17">
-        <v>447.8643390000002</v>
+        <v>488.0363821000003</v>
       </c>
       <c r="V17" t="s">
         <v>93</v>
       </c>
       <c r="W17">
-        <v>180.0745243059336</v>
+        <v>180.3422436118756</v>
       </c>
       <c r="X17">
-        <v>162.0745243059336</v>
+        <v>162.3422436118756</v>
       </c>
       <c r="Y17">
         <v>18</v>
@@ -3207,19 +3207,19 @@
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>0.08716560293013383</v>
+        <v>0.08729022964306368</v>
       </c>
       <c r="AF17">
-        <v>0.08716560293013383</v>
+        <v>0.08729022964306368</v>
       </c>
       <c r="AG17">
-        <v>0.07845265000806016</v>
+        <v>0.07857777213944815</v>
       </c>
       <c r="AI17">
-        <v>48.69144504276978</v>
+        <v>48.85240048703311</v>
       </c>
       <c r="AJ17">
-        <v>124.0261392497031</v>
+        <v>123.9100114044851</v>
       </c>
       <c r="AL17">
         <v>47.35618479880775</v>
@@ -3228,34 +3228,34 @@
         <v>1617.110246199702</v>
       </c>
       <c r="AN17">
-        <v>448.7794884272637</v>
+        <v>448.8969615864231</v>
       </c>
       <c r="AO17">
-        <v>2065.889734626965</v>
+        <v>2066.007207786125</v>
       </c>
       <c r="AP17">
-        <v>1196.48021366715</v>
+        <v>1196.458438569963</v>
       </c>
       <c r="AQ17">
-        <v>1008.143983279494</v>
+        <v>1007.503457297352</v>
       </c>
       <c r="AR17">
-        <v>108.9233852315871</v>
+        <v>108.2650439803319</v>
       </c>
       <c r="AS17">
-        <v>139.0219634117647</v>
+        <v>138.8316213004442</v>
       </c>
       <c r="AT17">
-        <v>14.99582416206155</v>
+        <v>14.92160989595903</v>
       </c>
       <c r="AU17">
-        <v>81.1524084046163</v>
+        <v>81.42066747838851</v>
       </c>
       <c r="AV17">
-        <v>62.76580463146308</v>
+        <v>61.45133516997916</v>
       </c>
       <c r="AW17">
-        <v>10.64305998653926</v>
+        <v>10.42016827964262</v>
       </c>
     </row>
     <row r="18" spans="1:49">
@@ -3314,22 +3314,22 @@
         <v>76</v>
       </c>
       <c r="S18">
-        <v>262.167916094032</v>
+        <v>180.3036814612954</v>
       </c>
       <c r="T18">
         <v>6.989583333333333</v>
       </c>
       <c r="U18">
-        <v>503.4793893999999</v>
+        <v>531.0471787000001</v>
       </c>
       <c r="V18" t="s">
         <v>94</v>
       </c>
       <c r="W18">
-        <v>262.167916094032</v>
+        <v>180.3036814612954</v>
       </c>
       <c r="X18">
-        <v>244.167916094032</v>
+        <v>162.3036814612954</v>
       </c>
       <c r="Y18">
         <v>18</v>
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>0.1267816839633918</v>
+        <v>0.08728466083067328</v>
       </c>
       <c r="AF18">
-        <v>0.1267816839633918</v>
+        <v>0.08728466083067328</v>
       </c>
       <c r="AG18">
-        <v>0.1180770707317615</v>
+        <v>0.07857089590796769</v>
       </c>
       <c r="AI18">
-        <v>127.0015420369691</v>
+        <v>48.85240048703308</v>
       </c>
       <c r="AJ18">
-        <v>117.1663740570629</v>
+        <v>123.871449253905</v>
       </c>
       <c r="AL18">
         <v>47.35618479880775</v>
@@ -3371,34 +3371,34 @@
         <v>1617.110246199702</v>
       </c>
       <c r="AN18">
-        <v>450.7587700355853</v>
+        <v>448.5869764895529</v>
       </c>
       <c r="AO18">
-        <v>2067.869016235287</v>
+        <v>2065.697222689255</v>
       </c>
       <c r="AP18">
-        <v>1196.48021366715</v>
+        <v>1196.458438569963</v>
       </c>
       <c r="AQ18">
-        <v>1052.066657564398</v>
+        <v>1008.590254899733</v>
       </c>
       <c r="AR18">
-        <v>155.3857308821412</v>
+        <v>109.6423395979193</v>
       </c>
       <c r="AS18">
-        <v>139.0081897718779</v>
+        <v>139.0210463507026</v>
       </c>
       <c r="AT18">
-        <v>21.84181571481501</v>
+        <v>15.14959709679767</v>
       </c>
       <c r="AU18">
-        <v>211.6692367282819</v>
+        <v>81.42066747838847</v>
       </c>
       <c r="AV18">
-        <v>0</v>
+        <v>61.45133516997942</v>
       </c>
       <c r="AW18">
-        <v>0</v>
+        <v>10.42016827964267</v>
       </c>
     </row>
     <row r="19" spans="1:49">
@@ -3457,22 +3457,22 @@
         <v>76</v>
       </c>
       <c r="S19">
-        <v>265.6524166252308</v>
+        <v>180.3898332725451</v>
       </c>
       <c r="T19">
         <v>6.989583333333333</v>
       </c>
       <c r="U19">
-        <v>495.9176347000002</v>
+        <v>525.7480609000002</v>
       </c>
       <c r="V19" t="s">
         <v>95</v>
       </c>
       <c r="W19">
-        <v>265.6524166252308</v>
+        <v>180.3898332725451</v>
       </c>
       <c r="X19">
-        <v>247.6524166252308</v>
+        <v>162.3898332725451</v>
       </c>
       <c r="Y19">
         <v>18</v>
@@ -3493,19 +3493,19 @@
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>0.1284667522650304</v>
+        <v>0.08730947821247585</v>
       </c>
       <c r="AF19">
-        <v>0.1284667522650304</v>
+        <v>0.08730947821247585</v>
       </c>
       <c r="AG19">
-        <v>0.1197621390334001</v>
+        <v>0.0785973984942684</v>
       </c>
       <c r="AI19">
-        <v>129.9298186112775</v>
+        <v>48.85240048703308</v>
       </c>
       <c r="AJ19">
-        <v>117.7225980139533</v>
+        <v>123.9576010651547</v>
       </c>
       <c r="AL19">
         <v>47.35618479880775</v>
@@ -3514,34 +3514,34 @@
         <v>1617.110246199702</v>
       </c>
       <c r="AN19">
-        <v>450.7587700355856</v>
+        <v>448.9865506858486</v>
       </c>
       <c r="AO19">
-        <v>2067.869016235287</v>
+        <v>2066.09679688555</v>
       </c>
       <c r="AP19">
-        <v>1196.48021366715</v>
+        <v>1196.458438569963</v>
       </c>
       <c r="AQ19">
-        <v>1049.334238090179</v>
+        <v>1008.480474493007</v>
       </c>
       <c r="AR19">
-        <v>152.7836483701268</v>
+        <v>109.1299066424205</v>
       </c>
       <c r="AS19">
-        <v>139.4466177055009</v>
+        <v>139.0197747344662</v>
       </c>
       <c r="AT19">
-        <v>21.72401969154764</v>
+        <v>15.0621736693115</v>
       </c>
       <c r="AU19">
-        <v>216.5496976854625</v>
+        <v>81.42066747838847</v>
       </c>
       <c r="AV19">
-        <v>0</v>
+        <v>61.45133516997942</v>
       </c>
       <c r="AW19">
-        <v>0</v>
+        <v>10.42016827964267</v>
       </c>
     </row>
     <row r="20" spans="1:49">
@@ -3600,22 +3600,22 @@
         <v>76</v>
       </c>
       <c r="S20">
-        <v>260.7776433138063</v>
+        <v>180.3828349160841</v>
       </c>
       <c r="T20">
         <v>6.989583333333333</v>
       </c>
       <c r="U20">
-        <v>364.2703829999991</v>
+        <v>378.8014963999999</v>
       </c>
       <c r="V20" t="s">
         <v>96</v>
       </c>
       <c r="W20">
-        <v>260.7776433138063</v>
+        <v>180.3828349160841</v>
       </c>
       <c r="X20">
-        <v>242.7776433138063</v>
+        <v>162.3828349160841</v>
       </c>
       <c r="Y20">
         <v>18</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>0.1261093624723736</v>
+        <v>0.08730352885051085</v>
       </c>
       <c r="AF20">
-        <v>0.1261093624723736</v>
+        <v>0.08730352885051085</v>
       </c>
       <c r="AG20">
-        <v>0.1174047492407433</v>
+        <v>0.07859170480117569</v>
       </c>
       <c r="AI20">
-        <v>124.4652931626899</v>
+        <v>48.85240048703308</v>
       </c>
       <c r="AJ20">
-        <v>118.3123501511164</v>
+        <v>123.9506027086937</v>
       </c>
       <c r="AL20">
         <v>47.35618479880775</v>
@@ -3657,34 +3657,34 @@
         <v>1617.110246199702</v>
       </c>
       <c r="AN20">
-        <v>450.7587700355851</v>
+        <v>449.0471851333679</v>
       </c>
       <c r="AO20">
-        <v>2067.869016235287</v>
+        <v>2066.15743133307</v>
       </c>
       <c r="AP20">
-        <v>1196.48021366715</v>
+        <v>1196.458438569963</v>
       </c>
       <c r="AQ20">
-        <v>1050.284926944778</v>
+        <v>1008.190348932124</v>
       </c>
       <c r="AR20">
-        <v>153.5886550888572</v>
+        <v>108.789027051572</v>
       </c>
       <c r="AS20">
-        <v>139.6168389635444</v>
+        <v>138.9530622235629</v>
       </c>
       <c r="AT20">
-        <v>21.30448881242797</v>
+        <v>15.00245951486919</v>
       </c>
       <c r="AU20">
-        <v>207.4421552711498</v>
+        <v>81.42066747838847</v>
       </c>
       <c r="AV20">
-        <v>3.552713678800501E-15</v>
+        <v>61.45133516997942</v>
       </c>
       <c r="AW20">
-        <v>6.024258753709678E-16</v>
+        <v>10.42016827964267</v>
       </c>
     </row>
     <row r="21" spans="1:49">
@@ -3743,22 +3743,22 @@
         <v>77</v>
       </c>
       <c r="S21">
-        <v>242.3923267766081</v>
+        <v>242.3947527760659</v>
       </c>
       <c r="T21">
         <v>6.989583333333333</v>
       </c>
       <c r="U21">
-        <v>326.897653</v>
+        <v>310.0048851000001</v>
       </c>
       <c r="V21" t="s">
         <v>97</v>
       </c>
       <c r="W21">
-        <v>242.3923267766081</v>
+        <v>242.3947527760659</v>
       </c>
       <c r="X21">
-        <v>224.3923267766081</v>
+        <v>224.3947527760659</v>
       </c>
       <c r="Y21">
         <v>18</v>
@@ -3779,19 +3779,19 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0.1173085058543564</v>
+        <v>0.1173096799442106</v>
       </c>
       <c r="AF21">
-        <v>0.1173085058543564</v>
+        <v>0.1173096799442106</v>
       </c>
       <c r="AG21">
-        <v>0.1085972024337475</v>
+        <v>0.1085983765236017</v>
       </c>
       <c r="AI21">
-        <v>78.5172204670267</v>
+        <v>78.51752489753197</v>
       </c>
       <c r="AJ21">
-        <v>158.9168510658588</v>
+        <v>158.9189726348114</v>
       </c>
       <c r="AL21">
         <v>47.35618479880775</v>
@@ -3806,22 +3806,22 @@
         <v>2066.280914681061</v>
       </c>
       <c r="AP21">
-        <v>1196.48021366715</v>
+        <v>1196.458438569963</v>
       </c>
       <c r="AQ21">
-        <v>943.5904517397328</v>
+        <v>943.5960657750409</v>
       </c>
       <c r="AR21">
-        <v>56.09857343220284</v>
+        <v>56.0824123703233</v>
       </c>
       <c r="AS21">
-        <v>164.2267591357482</v>
+        <v>164.2274980704627</v>
       </c>
       <c r="AT21">
-        <v>5.309908069889366</v>
+        <v>5.308525435651332</v>
       </c>
       <c r="AU21">
-        <v>130.8620341117112</v>
+        <v>130.8625414958866</v>
       </c>
       <c r="AV21">
         <v>76.91167807577958</v>
@@ -3886,22 +3886,22 @@
         <v>76</v>
       </c>
       <c r="S22">
-        <v>187.3583158000979</v>
+        <v>186.8710689734174</v>
       </c>
       <c r="T22">
         <v>6.989583333333333</v>
       </c>
       <c r="U22">
-        <v>452.8677781000001</v>
+        <v>281.8244906000004</v>
       </c>
       <c r="V22" t="s">
         <v>98</v>
       </c>
       <c r="W22">
-        <v>187.3583158000979</v>
+        <v>186.8710689734174</v>
       </c>
       <c r="X22">
-        <v>169.3583158000979</v>
+        <v>168.8710689734174</v>
       </c>
       <c r="Y22">
         <v>18</v>
@@ -3922,19 +3922,19 @@
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.09546415751178229</v>
+        <v>0.09519993378511946</v>
       </c>
       <c r="AF22">
-        <v>0.09546415751178229</v>
+        <v>0.09519993378511946</v>
       </c>
       <c r="AG22">
-        <v>0.0862926679631386</v>
+        <v>0.08602998138132648</v>
       </c>
       <c r="AI22">
-        <v>50.86642172954095</v>
+        <v>50.69109512399758</v>
       </c>
       <c r="AJ22">
-        <v>125.5112348819432</v>
+        <v>125.6235700417772</v>
       </c>
       <c r="AL22">
         <v>35.48137108792847</v>
@@ -3943,34 +3943,34 @@
         <v>1617.585567809239</v>
       </c>
       <c r="AN22">
-        <v>345.0182060414216</v>
+        <v>345.3471942577328</v>
       </c>
       <c r="AO22">
-        <v>1962.603773850661</v>
+        <v>1962.932762066972</v>
       </c>
       <c r="AP22">
-        <v>1079.177323393128</v>
+        <v>1079.157683125924</v>
       </c>
       <c r="AQ22">
-        <v>953.3016281380909</v>
+        <v>955.0950708839077</v>
       </c>
       <c r="AR22">
-        <v>43.24545342343575</v>
+        <v>44.3235227573231</v>
       </c>
       <c r="AS22">
-        <v>132.3182235914761</v>
+        <v>132.5979191497971</v>
       </c>
       <c r="AT22">
-        <v>6.806988709532897</v>
+        <v>6.974349108019895</v>
       </c>
       <c r="AU22">
-        <v>86.64971771177687</v>
+        <v>86.13910941177863</v>
       </c>
       <c r="AV22">
-        <v>41.39547973668662</v>
+        <v>43.89746040667806</v>
       </c>
       <c r="AW22">
-        <v>7.019340811386266</v>
+        <v>7.443596192357393</v>
       </c>
     </row>
     <row r="23" spans="1:49">
@@ -4029,22 +4029,22 @@
         <v>76</v>
       </c>
       <c r="S23">
-        <v>246.37702751163</v>
+        <v>186.8623251374706</v>
       </c>
       <c r="T23">
         <v>6.989583333333333</v>
       </c>
       <c r="U23">
-        <v>476.9083049999999</v>
+        <v>142.3382979999997</v>
       </c>
       <c r="V23" t="s">
         <v>99</v>
       </c>
       <c r="W23">
-        <v>246.37702751163</v>
+        <v>186.8623251374706</v>
       </c>
       <c r="X23">
-        <v>228.37702751163</v>
+        <v>168.8623251374706</v>
       </c>
       <c r="Y23">
         <v>18</v>
@@ -4065,19 +4065,19 @@
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>0.1254994116443141</v>
+        <v>0.09520011689183022</v>
       </c>
       <c r="AF23">
-        <v>0.1254994116443141</v>
+        <v>0.09520011689183022</v>
       </c>
       <c r="AG23">
-        <v>0.1163305803112426</v>
+        <v>0.08602971776085352</v>
       </c>
       <c r="AI23">
-        <v>108.8903578321489</v>
+        <v>50.69109512399758</v>
       </c>
       <c r="AJ23">
-        <v>119.4866696794812</v>
+        <v>125.6148262058304</v>
       </c>
       <c r="AL23">
         <v>35.48137108792847</v>
@@ -4086,34 +4086,34 @@
         <v>1617.585567809239</v>
       </c>
       <c r="AN23">
-        <v>345.5872015572251</v>
+        <v>345.2515718740054</v>
       </c>
       <c r="AO23">
-        <v>1963.172769366464</v>
+        <v>1962.837139683245</v>
       </c>
       <c r="AP23">
-        <v>1079.177323393128</v>
+        <v>1079.157683125924</v>
       </c>
       <c r="AQ23">
-        <v>1015.199835795082</v>
+        <v>954.4734950094593</v>
       </c>
       <c r="AR23">
-        <v>106.3805576887428</v>
+        <v>43.80801013958872</v>
       </c>
       <c r="AS23">
-        <v>136.036194170905</v>
+        <v>132.5005995438197</v>
       </c>
       <c r="AT23">
-        <v>16.54952449142388</v>
+        <v>6.885773337989257</v>
       </c>
       <c r="AU23">
-        <v>190.6579839374932</v>
+        <v>86.13910941177863</v>
       </c>
       <c r="AV23">
-        <v>0</v>
+        <v>43.89746040667806</v>
       </c>
       <c r="AW23">
-        <v>0</v>
+        <v>7.443596192357393</v>
       </c>
     </row>
     <row r="24" spans="1:49">
@@ -4172,22 +4172,22 @@
         <v>76</v>
       </c>
       <c r="S24">
-        <v>251.4365538356622</v>
+        <v>189.4277431346586</v>
       </c>
       <c r="T24">
         <v>6.989583333333333</v>
       </c>
       <c r="U24">
-        <v>473.6377579999998</v>
+        <v>141.9981002999994</v>
       </c>
       <c r="V24" t="s">
         <v>100</v>
       </c>
       <c r="W24">
-        <v>251.4365538356622</v>
+        <v>189.4277431346586</v>
       </c>
       <c r="X24">
-        <v>233.4365538356622</v>
+        <v>171.4277431346586</v>
       </c>
       <c r="Y24">
         <v>18</v>
@@ -4208,19 +4208,19 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>0.1280766307271078</v>
+        <v>0.09650241047237439</v>
       </c>
       <c r="AF24">
-        <v>0.1280766307271078</v>
+        <v>0.09650241047237439</v>
       </c>
       <c r="AG24">
-        <v>0.1189077993940363</v>
+        <v>0.08733245806858142</v>
       </c>
       <c r="AI24">
-        <v>113.711708019468</v>
+        <v>51.60752717759052</v>
       </c>
       <c r="AJ24">
-        <v>119.7248458161941</v>
+        <v>125.0462295479357</v>
       </c>
       <c r="AL24">
         <v>35.48137108792847</v>
@@ -4229,34 +4229,34 @@
         <v>1617.585567809239</v>
       </c>
       <c r="AN24">
-        <v>345.5872015572249</v>
+        <v>345.3471942577327</v>
       </c>
       <c r="AO24">
-        <v>1963.172769366464</v>
+        <v>1962.932762066972</v>
       </c>
       <c r="AP24">
-        <v>1079.177323393128</v>
+        <v>1079.157683125924</v>
       </c>
       <c r="AQ24">
-        <v>1013.590039255964</v>
+        <v>955.3764155089182</v>
       </c>
       <c r="AR24">
-        <v>104.8936507567375</v>
+        <v>46.36739451279708</v>
       </c>
       <c r="AS24">
-        <v>136.1040218638261</v>
+        <v>132.3659001052897</v>
       </c>
       <c r="AT24">
-        <v>16.37917604763203</v>
+        <v>7.319670557353994</v>
       </c>
       <c r="AU24">
-        <v>202.0760876910012</v>
+        <v>88.80805866508098</v>
       </c>
       <c r="AV24">
-        <v>1.77635683940025E-15</v>
+        <v>30.81960906549653</v>
       </c>
       <c r="AW24">
-        <v>3.012129376854839E-16</v>
+        <v>5.226013590867633</v>
       </c>
     </row>
     <row r="25" spans="1:49">
@@ -4315,22 +4315,22 @@
         <v>76</v>
       </c>
       <c r="S25">
-        <v>254.905979606101</v>
+        <v>186.8110987889421</v>
       </c>
       <c r="T25">
         <v>6.989583333333333</v>
       </c>
       <c r="U25">
-        <v>370.1178897</v>
+        <v>138.3222417999996</v>
       </c>
       <c r="V25" t="s">
         <v>101</v>
       </c>
       <c r="W25">
-        <v>254.905979606101</v>
+        <v>186.8110987889421</v>
       </c>
       <c r="X25">
-        <v>236.905979606101</v>
+        <v>168.8110987889421</v>
       </c>
       <c r="Y25">
         <v>18</v>
@@ -4351,19 +4351,19 @@
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>0.1298438851555392</v>
+        <v>0.09518405047466391</v>
       </c>
       <c r="AF25">
-        <v>0.1298438851555392</v>
+        <v>0.09518405047466391</v>
       </c>
       <c r="AG25">
-        <v>0.1206750538224677</v>
+        <v>0.08601268474933493</v>
       </c>
       <c r="AI25">
-        <v>116.1048652586852</v>
+        <v>50.69109512399756</v>
       </c>
       <c r="AJ25">
-        <v>120.8011143474159</v>
+        <v>125.563599857302</v>
       </c>
       <c r="AL25">
         <v>35.48137108792847</v>
@@ -4372,34 +4372,34 @@
         <v>1617.585567809239</v>
       </c>
       <c r="AN25">
-        <v>345.5872015572248</v>
+        <v>345.0447033060615</v>
       </c>
       <c r="AO25">
-        <v>1963.172769366464</v>
+        <v>1962.630271115301</v>
       </c>
       <c r="AP25">
-        <v>1079.177323393128</v>
+        <v>1079.157683125924</v>
       </c>
       <c r="AQ25">
-        <v>1013.501011403562</v>
+        <v>955.0473808690047</v>
       </c>
       <c r="AR25">
-        <v>104.8995034173365</v>
+        <v>44.56982533343549</v>
       </c>
       <c r="AS25">
-        <v>137.0393417178997</v>
+        <v>132.5632485089625</v>
       </c>
       <c r="AT25">
-        <v>16.23822737048378</v>
+        <v>6.999648651660513</v>
       </c>
       <c r="AU25">
-        <v>201.0767208436156</v>
+        <v>86.13910941177852</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>43.8974604066786</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>7.443596192357484</v>
       </c>
     </row>
     <row r="26" spans="1:49">
@@ -4458,22 +4458,22 @@
         <v>77</v>
       </c>
       <c r="S26">
-        <v>226.0025705433632</v>
+        <v>226.0046293007935</v>
       </c>
       <c r="T26">
         <v>6.989583333333333</v>
       </c>
       <c r="U26">
-        <v>295.3768280999998</v>
+        <v>27.92548560000068</v>
       </c>
       <c r="V26" t="s">
         <v>102</v>
       </c>
       <c r="W26">
-        <v>226.0025705433632</v>
+        <v>226.0046293007935</v>
       </c>
       <c r="X26">
-        <v>208.0025705433632</v>
+        <v>208.0046293007935</v>
       </c>
       <c r="Y26">
         <v>18</v>
@@ -4494,19 +4494,19 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>0.1151575481754452</v>
+        <v>0.1151585971965133</v>
       </c>
       <c r="AF26">
-        <v>0.1151575481754452</v>
+        <v>0.1151585971965133</v>
       </c>
       <c r="AG26">
-        <v>0.1059858123753858</v>
+        <v>0.1059868613964539</v>
       </c>
       <c r="AI26">
-        <v>64.09002093153752</v>
+        <v>64.09021371099561</v>
       </c>
       <c r="AJ26">
-        <v>155.3899977764463</v>
+        <v>155.3918637544185</v>
       </c>
       <c r="AL26">
         <v>35.48137108792847</v>
@@ -4521,22 +4521,22 @@
         <v>1962.55108001295</v>
       </c>
       <c r="AP26">
-        <v>1079.177323393128</v>
+        <v>1079.157683125924</v>
       </c>
       <c r="AQ26">
-        <v>915.7108145450975</v>
+        <v>915.7151395979964</v>
       </c>
       <c r="AR26">
-        <v>14.75158899075915</v>
+        <v>14.736273776455</v>
       </c>
       <c r="AS26">
-        <v>157.0596708111399</v>
+        <v>157.0602365619442</v>
       </c>
       <c r="AT26">
-        <v>1.669673034693664</v>
+        <v>1.668372807525719</v>
       </c>
       <c r="AU26">
-        <v>114.1506466134948</v>
+        <v>114.1510970833527</v>
       </c>
       <c r="AV26">
         <v>67.68648021146484</v>
@@ -4601,22 +4601,22 @@
         <v>76</v>
       </c>
       <c r="S27">
-        <v>187.2423890189648</v>
+        <v>187.1298278601041</v>
       </c>
       <c r="T27">
         <v>6.989583333333333</v>
       </c>
       <c r="U27">
-        <v>394.2908551</v>
+        <v>154.9160982000003</v>
       </c>
       <c r="V27" t="s">
         <v>103</v>
       </c>
       <c r="W27">
-        <v>187.2423890189648</v>
+        <v>187.1298278601041</v>
       </c>
       <c r="X27">
-        <v>169.2423890189648</v>
+        <v>169.1298278601041</v>
       </c>
       <c r="Y27">
         <v>18</v>
@@ -4637,19 +4637,19 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>0.09481675283965202</v>
+        <v>0.09475975354779848</v>
       </c>
       <c r="AF27">
-        <v>0.09481675283965202</v>
+        <v>0.09475975354779848</v>
       </c>
       <c r="AG27">
-        <v>0.0857018213326583</v>
+        <v>0.08564482204080477</v>
       </c>
       <c r="AI27">
-        <v>51.7968512936429</v>
+        <v>51.72616515552088</v>
       </c>
       <c r="AJ27">
-        <v>126.1901467663076</v>
+        <v>126.2461581765129</v>
       </c>
       <c r="AL27">
         <v>39.20119225037258</v>
@@ -4658,34 +4658,34 @@
         <v>1608.931650670642</v>
       </c>
       <c r="AN27">
-        <v>365.8500562669185</v>
+        <v>365.8500562669186</v>
       </c>
       <c r="AO27">
         <v>1974.781706937561</v>
       </c>
       <c r="AP27">
-        <v>1085.813123979267</v>
+        <v>1085.793362945165</v>
       </c>
       <c r="AQ27">
-        <v>975.313132102305</v>
+        <v>975.1653893161847</v>
       </c>
       <c r="AR27">
-        <v>57.36918118598571</v>
+        <v>57.18034784744219</v>
       </c>
       <c r="AS27">
-        <v>134.6649348287573</v>
+        <v>134.7103325781215</v>
       </c>
       <c r="AT27">
-        <v>8.474788062449718</v>
+        <v>8.464174401608659</v>
       </c>
       <c r="AU27">
-        <v>86.32808548940483</v>
+        <v>86.21027525920147</v>
       </c>
       <c r="AV27">
-        <v>51.56998300669177</v>
+        <v>52.14725313468824</v>
       </c>
       <c r="AW27">
-        <v>8.744609040985644</v>
+        <v>8.842495471929665</v>
       </c>
     </row>
     <row r="28" spans="1:49">
@@ -4744,22 +4744,22 @@
         <v>76</v>
       </c>
       <c r="S28">
-        <v>259.1257025772256</v>
+        <v>187.2148954061072</v>
       </c>
       <c r="T28">
         <v>6.989583333333333</v>
       </c>
       <c r="U28">
-        <v>496.3431640999997</v>
+        <v>155.0164599</v>
       </c>
       <c r="V28" t="s">
         <v>104</v>
       </c>
       <c r="W28">
-        <v>259.1257025772256</v>
+        <v>187.2148954061072</v>
       </c>
       <c r="X28">
-        <v>241.1257025772256</v>
+        <v>169.2148954061072</v>
       </c>
       <c r="Y28">
         <v>18</v>
@@ -4780,19 +4780,19 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>0.1311625797023463</v>
+        <v>0.09480283048420328</v>
       </c>
       <c r="AF28">
-        <v>0.1311625797023463</v>
+        <v>0.09480283048420328</v>
       </c>
       <c r="AG28">
-        <v>0.122051455598636</v>
+        <v>0.08568789897720956</v>
       </c>
       <c r="AI28">
-        <v>121.3611699879479</v>
+        <v>51.72570374292549</v>
       </c>
       <c r="AJ28">
-        <v>119.7645325892777</v>
+        <v>126.3323261010155</v>
       </c>
       <c r="AL28">
         <v>39.20119225037258</v>
@@ -4801,34 +4801,34 @@
         <v>1608.931650670642</v>
       </c>
       <c r="AN28">
-        <v>366.6752881778646</v>
+        <v>365.8500562669184</v>
       </c>
       <c r="AO28">
-        <v>1975.606938848507</v>
+        <v>1974.781706937561</v>
       </c>
       <c r="AP28">
-        <v>1085.813123979267</v>
+        <v>1085.793362945165</v>
       </c>
       <c r="AQ28">
-        <v>1005.852044154772</v>
+        <v>975.958510668533</v>
       </c>
       <c r="AR28">
-        <v>90.66545373664808</v>
+        <v>57.99272433150783</v>
       </c>
       <c r="AS28">
-        <v>132.8453498947342</v>
+        <v>134.8346895570706</v>
       </c>
       <c r="AT28">
-        <v>13.08081730545649</v>
+        <v>8.502363456055161</v>
       </c>
       <c r="AU28">
-        <v>202.2686166465798</v>
+        <v>86.20950623820916</v>
       </c>
       <c r="AV28">
-        <v>0</v>
+        <v>52.1510213375506</v>
       </c>
       <c r="AW28">
-        <v>0</v>
+        <v>8.843134437833807</v>
       </c>
     </row>
     <row r="29" spans="1:49">
@@ -4887,22 +4887,22 @@
         <v>76</v>
       </c>
       <c r="S29">
-        <v>259.6939845111108</v>
+        <v>187.1551282718304</v>
       </c>
       <c r="T29">
         <v>6.989583333333333</v>
       </c>
       <c r="U29">
-        <v>514.7084201000002</v>
+        <v>395.5145806</v>
       </c>
       <c r="V29" t="s">
         <v>105</v>
       </c>
       <c r="W29">
-        <v>259.6939845111108</v>
+        <v>187.1551282718304</v>
       </c>
       <c r="X29">
-        <v>241.6939845111108</v>
+        <v>169.1551282718304</v>
       </c>
       <c r="Y29">
         <v>18</v>
@@ -4923,19 +4923,19 @@
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>0.1314502289926532</v>
+        <v>0.09477256529890873</v>
       </c>
       <c r="AF29">
-        <v>0.1314502289926532</v>
+        <v>0.09477256529890873</v>
       </c>
       <c r="AG29">
-        <v>0.1223391048889429</v>
+        <v>0.08565763379191502</v>
       </c>
       <c r="AI29">
-        <v>121.5684122443354</v>
+        <v>51.72616515552087</v>
       </c>
       <c r="AJ29">
-        <v>120.1255722667754</v>
+        <v>126.2714585882393</v>
       </c>
       <c r="AL29">
         <v>39.20119225037258</v>
@@ -4944,34 +4944,34 @@
         <v>1608.931650670642</v>
       </c>
       <c r="AN29">
-        <v>366.6752881778646</v>
+        <v>365.8500562669186</v>
       </c>
       <c r="AO29">
-        <v>1975.606938848507</v>
+        <v>1974.781706937561</v>
       </c>
       <c r="AP29">
-        <v>1085.813123979267</v>
+        <v>1085.793362945165</v>
       </c>
       <c r="AQ29">
-        <v>1010.917550289604</v>
+        <v>975.4184884396368</v>
       </c>
       <c r="AR29">
-        <v>95.60327792820188</v>
+        <v>57.43182170968829</v>
       </c>
       <c r="AS29">
-        <v>134.1176648384181</v>
+        <v>134.7513074351839</v>
       </c>
       <c r="AT29">
-        <v>13.99209257164273</v>
+        <v>8.479848846944638</v>
       </c>
       <c r="AU29">
-        <v>202.6140204072257</v>
+        <v>86.21027525920145</v>
       </c>
       <c r="AV29">
-        <v>7.105427357601002E-15</v>
+        <v>52.14725313468836</v>
       </c>
       <c r="AW29">
-        <v>1.204851750741936E-15</v>
+        <v>8.842495471929684</v>
       </c>
     </row>
     <row r="30" spans="1:49">
@@ -5030,22 +5030,22 @@
         <v>76</v>
       </c>
       <c r="S30">
-        <v>261.5356594451387</v>
+        <v>187.2057651453465</v>
       </c>
       <c r="T30">
         <v>6.989583333333333</v>
       </c>
       <c r="U30">
-        <v>474.9698316999998</v>
+        <v>378.7825253999999</v>
       </c>
       <c r="V30" t="s">
         <v>106</v>
       </c>
       <c r="W30">
-        <v>261.5356594451387</v>
+        <v>187.2057651453465</v>
       </c>
       <c r="X30">
-        <v>243.5356594451387</v>
+        <v>169.2057651453465</v>
       </c>
       <c r="Y30">
         <v>18</v>
@@ -5066,19 +5066,19 @@
         <v>0</v>
       </c>
       <c r="AE30">
-        <v>0.1323824361527988</v>
+        <v>0.09479820705634356</v>
       </c>
       <c r="AF30">
-        <v>0.1323824361527988</v>
+        <v>0.09479820705634356</v>
       </c>
       <c r="AG30">
-        <v>0.1232713120490884</v>
+        <v>0.08568327554934986</v>
       </c>
       <c r="AI30">
-        <v>122.2157141079479</v>
+        <v>51.72616515552089</v>
       </c>
       <c r="AJ30">
-        <v>121.3199453371908</v>
+        <v>126.3220954617552</v>
       </c>
       <c r="AL30">
         <v>39.20119225037258</v>
@@ -5087,34 +5087,34 @@
         <v>1608.931650670642</v>
       </c>
       <c r="AN30">
-        <v>366.6752881778646</v>
+        <v>365.8500562669185</v>
       </c>
       <c r="AO30">
-        <v>1975.606938848507</v>
+        <v>1974.781706937561</v>
       </c>
       <c r="AP30">
-        <v>1085.813123979267</v>
+        <v>1085.793362945165</v>
       </c>
       <c r="AQ30">
-        <v>1013.296328197913</v>
+        <v>975.9513833905809</v>
       </c>
       <c r="AR30">
-        <v>98.00443580020439</v>
+        <v>57.9804172112332</v>
       </c>
       <c r="AS30">
-        <v>135.4727896955042</v>
+        <v>134.8489060405339</v>
       </c>
       <c r="AT30">
-        <v>14.15284435831336</v>
+        <v>8.52681057877864</v>
       </c>
       <c r="AU30">
-        <v>203.6928568465798</v>
+        <v>86.21027525920148</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>52.14725313468814</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>8.842495471929647</v>
       </c>
     </row>
     <row r="31" spans="1:49">
@@ -5173,22 +5173,22 @@
         <v>77</v>
       </c>
       <c r="S31">
-        <v>235.546519850978</v>
+        <v>235.5487126875205</v>
       </c>
       <c r="T31">
         <v>6.989583333333333</v>
       </c>
       <c r="U31">
-        <v>293.1966753000006</v>
+        <v>272.5114798000004</v>
       </c>
       <c r="V31" t="s">
         <v>107</v>
       </c>
       <c r="W31">
-        <v>235.546519850978</v>
+        <v>235.5487126875205</v>
       </c>
       <c r="X31">
-        <v>217.546519850978</v>
+        <v>217.5487126875205</v>
       </c>
       <c r="Y31">
         <v>18</v>
@@ -5209,19 +5209,19 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>0.1192742901313038</v>
+        <v>0.1192754005235191</v>
       </c>
       <c r="AF31">
-        <v>0.1192742901313038</v>
+        <v>0.1192754005235191</v>
       </c>
       <c r="AG31">
-        <v>0.1101595843665072</v>
+        <v>0.1101606947587225</v>
       </c>
       <c r="AI31">
-        <v>64.71304146710172</v>
+        <v>64.71324566081796</v>
       </c>
       <c r="AJ31">
-        <v>163.6859881084048</v>
+        <v>163.687976751231</v>
       </c>
       <c r="AL31">
         <v>39.20119225037258</v>
@@ -5236,22 +5236,22 @@
         <v>1974.830615983338</v>
       </c>
       <c r="AP31">
-        <v>1085.813123979267</v>
+        <v>1085.793362945165</v>
       </c>
       <c r="AQ31">
-        <v>927.503328986595</v>
+        <v>927.5101264846253</v>
       </c>
       <c r="AR31">
-        <v>23.11234636172998</v>
+        <v>23.09938282565994</v>
       </c>
       <c r="AS31">
-        <v>165.7470876783749</v>
+        <v>165.7480276199535</v>
       </c>
       <c r="AT31">
-        <v>2.06109956997015</v>
+        <v>2.060050868722525</v>
       </c>
       <c r="AU31">
-        <v>107.8550691118362</v>
+        <v>107.8554094346966</v>
       </c>
       <c r="AV31">
         <v>64.00100215467228</v>
@@ -5316,22 +5316,22 @@
         <v>76</v>
       </c>
       <c r="S32">
-        <v>173.4670727542313</v>
+        <v>173.5034204081215</v>
       </c>
       <c r="T32">
         <v>6.989583333333333</v>
       </c>
       <c r="U32">
-        <v>430.7491726999997</v>
+        <v>472.4497747000005</v>
       </c>
       <c r="V32" t="s">
         <v>108</v>
       </c>
       <c r="W32">
-        <v>173.4670727542313</v>
+        <v>173.5034204081215</v>
       </c>
       <c r="X32">
-        <v>155.4670727542313</v>
+        <v>155.5034204081215</v>
       </c>
       <c r="Y32">
         <v>18</v>
@@ -5352,19 +5352,19 @@
         <v>0</v>
       </c>
       <c r="AE32">
-        <v>0.08569831179704183</v>
+        <v>0.08570403593367322</v>
       </c>
       <c r="AF32">
-        <v>0.08569831179704183</v>
+        <v>0.08570403593367322</v>
       </c>
       <c r="AG32">
-        <v>0.07680573300468352</v>
+        <v>0.07681272622244457</v>
       </c>
       <c r="AI32">
-        <v>46.83057937739572</v>
+        <v>46.83087571471567</v>
       </c>
       <c r="AJ32">
-        <v>122.978814616532</v>
+        <v>123.0149480069103</v>
       </c>
       <c r="AL32">
         <v>44.92399403874814</v>
@@ -5373,34 +5373,34 @@
         <v>1604.434665871833</v>
       </c>
       <c r="AN32">
-        <v>419.7250767967395</v>
+        <v>420.0139906931477</v>
       </c>
       <c r="AO32">
-        <v>2024.159742668572</v>
+        <v>2024.44865656498</v>
       </c>
       <c r="AP32">
-        <v>1159.788140904401</v>
+        <v>1159.767033577094</v>
       </c>
       <c r="AQ32">
-        <v>959.5457471276354</v>
+        <v>959.6489359393627</v>
       </c>
       <c r="AR32">
-        <v>61.95464850305311</v>
+        <v>61.74637568169651</v>
       </c>
       <c r="AS32">
-        <v>132.5383656911258</v>
+        <v>132.5313106321236</v>
       </c>
       <c r="AT32">
-        <v>9.55955107459377</v>
+        <v>9.516362625213343</v>
       </c>
       <c r="AU32">
-        <v>78.05096562899287</v>
+        <v>78.05145952452611</v>
       </c>
       <c r="AV32">
-        <v>84.58162727927925</v>
+        <v>84.58211129690181</v>
       </c>
       <c r="AW32">
-        <v>14.3423212396965</v>
+        <v>14.3424033135044</v>
       </c>
     </row>
     <row r="33" spans="1:49">
@@ -5459,22 +5459,22 @@
         <v>76</v>
       </c>
       <c r="S33">
-        <v>250.2103178427798</v>
+        <v>173.4885345493733</v>
       </c>
       <c r="T33">
         <v>6.989583333333333</v>
       </c>
       <c r="U33">
-        <v>458.5189191000009</v>
+        <v>515.9471723000006</v>
       </c>
       <c r="V33" t="s">
         <v>109</v>
       </c>
       <c r="W33">
-        <v>250.2103178427798</v>
+        <v>173.4885345493733</v>
       </c>
       <c r="X33">
-        <v>232.2103178427798</v>
+        <v>155.4885345493733</v>
       </c>
       <c r="Y33">
         <v>18</v>
@@ -5495,19 +5495,19 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>0.1234330538507387</v>
+        <v>0.08571315618655148</v>
       </c>
       <c r="AF33">
-        <v>0.1234330538507387</v>
+        <v>0.08571315618655148</v>
       </c>
       <c r="AG33">
-        <v>0.1145533442189825</v>
+        <v>0.07682013731723335</v>
       </c>
       <c r="AI33">
-        <v>115.2558828284826</v>
+        <v>46.83087571471567</v>
       </c>
       <c r="AJ33">
-        <v>116.9544350142972</v>
+        <v>123.000062148162</v>
       </c>
       <c r="AL33">
         <v>44.92399403874814</v>
@@ -5516,34 +5516,34 @@
         <v>1604.434665871833</v>
       </c>
       <c r="AN33">
-        <v>422.6586453359288</v>
+        <v>419.624909904166</v>
       </c>
       <c r="AO33">
-        <v>2027.093311207761</v>
+        <v>2024.059575775998</v>
       </c>
       <c r="AP33">
-        <v>1159.788140904401</v>
+        <v>1159.767033577094</v>
       </c>
       <c r="AQ33">
-        <v>1007.23350621535</v>
+        <v>959.2432669591624</v>
       </c>
       <c r="AR33">
-        <v>114.5491723114384</v>
+        <v>61.73292282671076</v>
       </c>
       <c r="AS33">
-        <v>134.3297219387497</v>
+        <v>132.5142121479118</v>
       </c>
       <c r="AT33">
-        <v>17.37528692445253</v>
+        <v>9.514149999749813</v>
       </c>
       <c r="AU33">
-        <v>192.093138047471</v>
+        <v>78.05145952452611</v>
       </c>
       <c r="AV33">
-        <v>8.881784197001252E-15</v>
+        <v>84.58211129690181</v>
       </c>
       <c r="AW33">
-        <v>1.50606468842742E-15</v>
+        <v>14.3424033135044</v>
       </c>
     </row>
     <row r="34" spans="1:49">
@@ -5602,22 +5602,22 @@
         <v>76</v>
       </c>
       <c r="S34">
-        <v>249.0915582592838</v>
+        <v>173.4368396669742</v>
       </c>
       <c r="T34">
         <v>6.989583333333333</v>
       </c>
       <c r="U34">
-        <v>460.3443156999992</v>
+        <v>540.7913597999996</v>
       </c>
       <c r="V34" t="s">
         <v>110</v>
       </c>
       <c r="W34">
-        <v>249.0915582592838</v>
+        <v>173.4368396669742</v>
       </c>
       <c r="X34">
-        <v>231.0915582592838</v>
+        <v>155.4368396669742</v>
       </c>
       <c r="Y34">
         <v>18</v>
@@ -5638,19 +5638,19 @@
         <v>0</v>
       </c>
       <c r="AE34">
-        <v>0.1228811505035615</v>
+        <v>0.08567901090338995</v>
       </c>
       <c r="AF34">
-        <v>0.1228811505035615</v>
+        <v>0.08567901090338995</v>
       </c>
       <c r="AG34">
-        <v>0.1140014408718054</v>
+        <v>0.0767868851057663</v>
       </c>
       <c r="AI34">
-        <v>114.0492048587334</v>
+        <v>46.83087571471567</v>
       </c>
       <c r="AJ34">
-        <v>117.0423534005503</v>
+        <v>122.948367265763</v>
       </c>
       <c r="AL34">
         <v>44.92399403874814</v>
@@ -5659,34 +5659,34 @@
         <v>1604.434665871833</v>
       </c>
       <c r="AN34">
-        <v>422.6586453359284</v>
+        <v>419.8281942881473</v>
       </c>
       <c r="AO34">
-        <v>2027.093311207761</v>
+        <v>2024.26286015998</v>
       </c>
       <c r="AP34">
-        <v>1159.788140904401</v>
+        <v>1159.767033577094</v>
       </c>
       <c r="AQ34">
-        <v>1011.471567692189</v>
+        <v>958.9477038864763</v>
       </c>
       <c r="AR34">
-        <v>118.7238673226387</v>
+        <v>61.20983480798235</v>
       </c>
       <c r="AS34">
-        <v>135.1928040179618</v>
+        <v>132.4037864443838</v>
       </c>
       <c r="AT34">
-        <v>18.15045061741148</v>
+        <v>9.455419178620822</v>
       </c>
       <c r="AU34">
-        <v>190.0820080978891</v>
+        <v>78.05145952452611</v>
       </c>
       <c r="AV34">
-        <v>0</v>
+        <v>84.58211129690181</v>
       </c>
       <c r="AW34">
-        <v>0</v>
+        <v>14.3424033135044</v>
       </c>
     </row>
     <row r="35" spans="1:49">
@@ -5745,22 +5745,22 @@
         <v>76</v>
       </c>
       <c r="S35">
-        <v>250.3168854941222</v>
+        <v>173.4377071026378</v>
       </c>
       <c r="T35">
         <v>6.989583333333333</v>
       </c>
       <c r="U35">
-        <v>396.6292193999998</v>
+        <v>389.8129429000001</v>
       </c>
       <c r="V35" t="s">
         <v>111</v>
       </c>
       <c r="W35">
-        <v>250.3168854941222</v>
+        <v>173.4377071026378</v>
       </c>
       <c r="X35">
-        <v>232.3168854941222</v>
+        <v>155.4377071026378</v>
       </c>
       <c r="Y35">
         <v>18</v>
@@ -5781,19 +5781,19 @@
         <v>0</v>
       </c>
       <c r="AE35">
-        <v>0.1234856255062975</v>
+        <v>0.08568795726857473</v>
       </c>
       <c r="AF35">
-        <v>0.1234856255062975</v>
+        <v>0.08568795726857473</v>
       </c>
       <c r="AG35">
-        <v>0.1146059158745414</v>
+        <v>0.07679494745772901</v>
       </c>
       <c r="AI35">
-        <v>114.0534735826388</v>
+        <v>46.83087571471567</v>
       </c>
       <c r="AJ35">
-        <v>118.2634119114834</v>
+        <v>122.9492347014266</v>
       </c>
       <c r="AL35">
         <v>44.92399403874814</v>
@@ -5802,34 +5802,34 @@
         <v>1604.434665871833</v>
       </c>
       <c r="AN35">
-        <v>422.6586453359287</v>
+        <v>419.6269716232243</v>
       </c>
       <c r="AO35">
-        <v>2027.093311207761</v>
+        <v>2024.061637495057</v>
       </c>
       <c r="AP35">
-        <v>1159.788140904401</v>
+        <v>1159.767033577094</v>
       </c>
       <c r="AQ35">
-        <v>1013.97537022983</v>
+        <v>959.4234600172781</v>
       </c>
       <c r="AR35">
-        <v>121.3491830749917</v>
+        <v>61.88223836320968</v>
       </c>
       <c r="AS35">
-        <v>136.6181945111437</v>
+        <v>132.5235472127945</v>
       </c>
       <c r="AT35">
-        <v>18.35478259966025</v>
+        <v>9.574312511367893</v>
       </c>
       <c r="AU35">
-        <v>190.0891226377314</v>
+        <v>78.05145952452611</v>
       </c>
       <c r="AV35">
-        <v>7.105427357601002E-15</v>
+        <v>84.58211129690181</v>
       </c>
       <c r="AW35">
-        <v>1.204851750741936E-15</v>
+        <v>14.3424033135044</v>
       </c>
     </row>
     <row r="36" spans="1:49">
@@ -5888,22 +5888,22 @@
         <v>77</v>
       </c>
       <c r="S36">
-        <v>222.8503592448692</v>
+        <v>222.8523879234421</v>
       </c>
       <c r="T36">
         <v>6.989583333333333</v>
       </c>
       <c r="U36">
-        <v>300.0248374000003</v>
+        <v>296.3466916000007</v>
       </c>
       <c r="V36" t="s">
         <v>112</v>
       </c>
       <c r="W36">
-        <v>222.8503592448692</v>
+        <v>222.8523879234421</v>
       </c>
       <c r="X36">
-        <v>204.8503592448692</v>
+        <v>204.8523879234421</v>
       </c>
       <c r="Y36">
         <v>18</v>
@@ -5924,19 +5924,19 @@
         <v>0</v>
       </c>
       <c r="AE36">
-        <v>0.1100896818671665</v>
+        <v>0.1100906840489869</v>
       </c>
       <c r="AF36">
-        <v>0.1100896818671665</v>
+        <v>0.1100906840489869</v>
       </c>
       <c r="AG36">
-        <v>0.1011975522770518</v>
+        <v>0.1011985544588722</v>
       </c>
       <c r="AI36">
-        <v>62.04131504751577</v>
+        <v>62.04141059683445</v>
       </c>
       <c r="AJ36">
-        <v>158.4930465632733</v>
+        <v>158.4949796925276</v>
       </c>
       <c r="AL36">
         <v>44.92399403874814</v>
@@ -5951,22 +5951,22 @@
         <v>2024.261996812371</v>
       </c>
       <c r="AP36">
-        <v>1159.788140904401</v>
+        <v>1159.767033577094</v>
       </c>
       <c r="AQ36">
-        <v>907.3157825190677</v>
+        <v>907.3196626585991</v>
       </c>
       <c r="AR36">
-        <v>22.90307061792201</v>
+        <v>22.88584343014731</v>
       </c>
       <c r="AS36">
-        <v>160.6822830803056</v>
+        <v>160.682773937473</v>
       </c>
       <c r="AT36">
-        <v>2.189236517032264</v>
+        <v>2.187794244945406</v>
       </c>
       <c r="AU36">
-        <v>103.4021917458596</v>
+        <v>103.4023509947241</v>
       </c>
       <c r="AV36">
         <v>92.49398477353043</v>
@@ -6031,22 +6031,22 @@
         <v>76</v>
       </c>
       <c r="S37">
-        <v>163.2485246100191</v>
+        <v>163.2517048841019</v>
       </c>
       <c r="T37">
         <v>6.989583333333333</v>
       </c>
       <c r="U37">
-        <v>468.7893358000001</v>
+        <v>389.0046016000006</v>
       </c>
       <c r="V37" t="s">
         <v>113</v>
       </c>
       <c r="W37">
-        <v>163.2485246100191</v>
+        <v>163.2517048841019</v>
       </c>
       <c r="X37">
-        <v>145.2485246100191</v>
+        <v>145.2517048841019</v>
       </c>
       <c r="Y37">
         <v>18</v>
@@ -6067,19 +6067,19 @@
         <v>0</v>
       </c>
       <c r="AE37">
-        <v>0.08234041229168795</v>
+        <v>0.08233730951980714</v>
       </c>
       <c r="AF37">
-        <v>0.08234041229168795</v>
+        <v>0.08233730951980714</v>
       </c>
       <c r="AG37">
-        <v>0.07326144863923838</v>
+        <v>0.07325886484194787</v>
       </c>
       <c r="AI37">
-        <v>42.68028594924345</v>
+        <v>42.67343763397685</v>
       </c>
       <c r="AJ37">
-        <v>118.9156323238527</v>
+        <v>118.9503182025775</v>
       </c>
       <c r="AL37">
         <v>40.2026825633383</v>
@@ -6088,34 +6088,34 @@
         <v>1605.681510581222</v>
       </c>
       <c r="AN37">
-        <v>376.9236290641442</v>
+        <v>377.0369658444599</v>
       </c>
       <c r="AO37">
-        <v>1982.605139645367</v>
+        <v>1982.718476425682</v>
       </c>
       <c r="AP37">
-        <v>1153.553756422471</v>
+        <v>1153.53276255657</v>
       </c>
       <c r="AQ37">
-        <v>900.9696178109884</v>
+        <v>901.0845660493119</v>
       </c>
       <c r="AR37">
-        <v>37.93624373713755</v>
+        <v>37.89666721038739</v>
       </c>
       <c r="AS37">
-        <v>124.6987614164763</v>
+        <v>124.7271069236197</v>
       </c>
       <c r="AT37">
-        <v>5.783129092623689</v>
+        <v>5.776788721042196</v>
       </c>
       <c r="AU37">
-        <v>71.13380991540575</v>
+        <v>71.12239605662809</v>
       </c>
       <c r="AV37">
-        <v>96.40623262370137</v>
+        <v>96.55164518452889</v>
       </c>
       <c r="AW37">
-        <v>16.34739366307705</v>
+        <v>16.37205095245254</v>
       </c>
     </row>
     <row r="38" spans="1:49">
@@ -6174,22 +6174,22 @@
         <v>76</v>
       </c>
       <c r="S38">
-        <v>246.4368163371254</v>
+        <v>163.2291495498189</v>
       </c>
       <c r="T38">
         <v>6.989583333333333</v>
       </c>
       <c r="U38">
-        <v>512.0024775000002</v>
+        <v>436.8787435999993</v>
       </c>
       <c r="V38" t="s">
         <v>114</v>
       </c>
       <c r="W38">
-        <v>246.4368163371254</v>
+        <v>163.2291495498189</v>
       </c>
       <c r="X38">
-        <v>228.4368163371254</v>
+        <v>145.2291495498189</v>
       </c>
       <c r="Y38">
         <v>18</v>
@@ -6210,19 +6210,19 @@
         <v>0</v>
       </c>
       <c r="AE38">
-        <v>0.1242740851569289</v>
+        <v>0.08232593355566944</v>
       </c>
       <c r="AF38">
-        <v>0.1242740851569289</v>
+        <v>0.08232593355566944</v>
       </c>
       <c r="AG38">
-        <v>0.1151969774176185</v>
+        <v>0.07324748887781016</v>
       </c>
       <c r="AI38">
-        <v>117.1964188142969</v>
+        <v>42.6734376339769</v>
       </c>
       <c r="AJ38">
-        <v>111.2403975228284</v>
+        <v>118.9277628682943</v>
       </c>
       <c r="AL38">
         <v>40.2026825633383</v>
@@ -6231,34 +6231,34 @@
         <v>1605.681510581222</v>
       </c>
       <c r="AN38">
-        <v>377.3289941908208</v>
+        <v>377.0369658444599</v>
       </c>
       <c r="AO38">
-        <v>1983.010504772043</v>
+        <v>1982.718476425682</v>
       </c>
       <c r="AP38">
-        <v>1153.553756422471</v>
+        <v>1153.53276255657</v>
       </c>
       <c r="AQ38">
-        <v>956.9017830015582</v>
+        <v>901.0845660493117</v>
       </c>
       <c r="AR38">
-        <v>101.9011972619759</v>
+        <v>37.89666721038763</v>
       </c>
       <c r="AS38">
-        <v>127.0223821466401</v>
+        <v>124.6995537439033</v>
       </c>
       <c r="AT38">
-        <v>15.78198462381167</v>
+        <v>5.771790875608985</v>
       </c>
       <c r="AU38">
-        <v>195.3273646904949</v>
+        <v>71.12239605662816</v>
       </c>
       <c r="AV38">
-        <v>0</v>
+        <v>96.55164518452781</v>
       </c>
       <c r="AW38">
-        <v>0</v>
+        <v>16.37205095245236</v>
       </c>
     </row>
     <row r="39" spans="1:49">
@@ -6317,22 +6317,22 @@
         <v>76</v>
       </c>
       <c r="S39">
-        <v>242.3994711633033</v>
+        <v>163.2151952216483</v>
       </c>
       <c r="T39">
         <v>6.989583333333333</v>
       </c>
       <c r="U39">
-        <v>511.3607966999998</v>
+        <v>462.6626022999999</v>
       </c>
       <c r="V39" t="s">
         <v>115</v>
       </c>
       <c r="W39">
-        <v>242.3994711633033</v>
+        <v>163.2151952216483</v>
       </c>
       <c r="X39">
-        <v>224.3994711633033</v>
+        <v>145.2151952216483</v>
       </c>
       <c r="Y39">
         <v>18</v>
@@ -6353,19 +6353,19 @@
         <v>0</v>
       </c>
       <c r="AE39">
-        <v>0.1222381175389529</v>
+        <v>0.08231889557809649</v>
       </c>
       <c r="AF39">
-        <v>0.1222381175389529</v>
+        <v>0.08231889557809649</v>
       </c>
       <c r="AG39">
-        <v>0.1131610097996426</v>
+        <v>0.0732404509002372</v>
       </c>
       <c r="AI39">
-        <v>113.0774248645366</v>
+        <v>42.67343763397689</v>
       </c>
       <c r="AJ39">
-        <v>111.3220462987667</v>
+        <v>118.9138085401238</v>
       </c>
       <c r="AL39">
         <v>40.2026825633383</v>
@@ -6374,34 +6374,34 @@
         <v>1605.681510581222</v>
       </c>
       <c r="AN39">
-        <v>377.3289941908206</v>
+        <v>377.0369658444599</v>
       </c>
       <c r="AO39">
-        <v>1983.010504772043</v>
+        <v>1982.718476425682</v>
       </c>
       <c r="AP39">
-        <v>1153.553756422471</v>
+        <v>1153.53276255657</v>
       </c>
       <c r="AQ39">
-        <v>963.0611295676417</v>
+        <v>900.8114558015327</v>
       </c>
       <c r="AR39">
-        <v>108.1218039540543</v>
+        <v>37.63437212842035</v>
       </c>
       <c r="AS39">
-        <v>128.1087242811243</v>
+        <v>124.6521972611661</v>
       </c>
       <c r="AT39">
-        <v>16.78667798235759</v>
+        <v>5.738388721042226</v>
       </c>
       <c r="AU39">
-        <v>188.4623747742277</v>
+        <v>71.12239605662815</v>
       </c>
       <c r="AV39">
-        <v>0</v>
+        <v>96.55164518452816</v>
       </c>
       <c r="AW39">
-        <v>0</v>
+        <v>16.37205095245242</v>
       </c>
     </row>
     <row r="40" spans="1:49">
@@ -6460,22 +6460,22 @@
         <v>76</v>
       </c>
       <c r="S40">
-        <v>243.5242384239836</v>
+        <v>163.212001883588</v>
       </c>
       <c r="T40">
         <v>6.989583333333333</v>
       </c>
       <c r="U40">
-        <v>414.0627086999993</v>
+        <v>412.2751860999997</v>
       </c>
       <c r="V40" t="s">
         <v>116</v>
       </c>
       <c r="W40">
-        <v>243.5242384239836</v>
+        <v>163.212001883588</v>
       </c>
       <c r="X40">
-        <v>225.5242384239836</v>
+        <v>145.212001883588</v>
       </c>
       <c r="Y40">
         <v>18</v>
@@ -6496,19 +6496,19 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <v>0.1228053194059998</v>
+        <v>0.08232199070803485</v>
       </c>
       <c r="AF40">
-        <v>0.1228053194059998</v>
+        <v>0.08232199070803485</v>
       </c>
       <c r="AG40">
-        <v>0.1137282116666894</v>
+        <v>0.07324302705558527</v>
       </c>
       <c r="AI40">
-        <v>113.130931646968</v>
+        <v>42.67343763397697</v>
       </c>
       <c r="AJ40">
-        <v>112.3933067770156</v>
+        <v>118.9106152020632</v>
       </c>
       <c r="AL40">
         <v>40.2026825633383</v>
@@ -6517,34 +6517,34 @@
         <v>1605.681510581222</v>
       </c>
       <c r="AN40">
-        <v>377.3289941908207</v>
+        <v>376.9236290641444</v>
       </c>
       <c r="AO40">
-        <v>1983.010504772043</v>
+        <v>1982.605139645367</v>
       </c>
       <c r="AP40">
-        <v>1153.553756422471</v>
+        <v>1153.53276255657</v>
       </c>
       <c r="AQ40">
-        <v>965.1323386239319</v>
+        <v>900.9762494356514</v>
       </c>
       <c r="AR40">
-        <v>110.1296215412768</v>
+        <v>37.89666721038795</v>
       </c>
       <c r="AS40">
-        <v>129.4514953095318</v>
+        <v>124.6874039231055</v>
       </c>
       <c r="AT40">
-        <v>17.0581885325162</v>
+        <v>5.776788721042296</v>
       </c>
       <c r="AU40">
-        <v>188.5515527449467</v>
+        <v>71.12239605662828</v>
       </c>
       <c r="AV40">
-        <v>0</v>
+        <v>96.55164518452634</v>
       </c>
       <c r="AW40">
-        <v>0</v>
+        <v>16.37205095245211</v>
       </c>
     </row>
     <row r="41" spans="1:49">
@@ -6603,22 +6603,22 @@
         <v>77</v>
       </c>
       <c r="S41">
-        <v>225.2414024752677</v>
+        <v>225.2436383229196</v>
       </c>
       <c r="T41">
         <v>6.989583333333333</v>
       </c>
       <c r="U41">
-        <v>300.8876707999998</v>
+        <v>233.7496136999998</v>
       </c>
       <c r="V41" t="s">
         <v>117</v>
       </c>
       <c r="W41">
-        <v>225.2414024752677</v>
+        <v>225.2436383229196</v>
       </c>
       <c r="X41">
-        <v>207.2414024752677</v>
+        <v>207.2436383229196</v>
       </c>
       <c r="Y41">
         <v>18</v>
@@ -6639,19 +6639,19 @@
         <v>0</v>
       </c>
       <c r="AE41">
-        <v>0.1136117694310926</v>
+        <v>0.113612897192708</v>
       </c>
       <c r="AF41">
-        <v>0.1136117694310926</v>
+        <v>0.113612897192708</v>
       </c>
       <c r="AG41">
-        <v>0.1045325689498036</v>
+        <v>0.104533696711419</v>
       </c>
       <c r="AI41">
-        <v>66.50570329784927</v>
+        <v>66.50602736696237</v>
       </c>
       <c r="AJ41">
-        <v>148.4628355581306</v>
+        <v>148.4647473366693</v>
       </c>
       <c r="AL41">
         <v>40.2026825633383</v>
@@ -6666,22 +6666,22 @@
         <v>1982.553423849984</v>
       </c>
       <c r="AP41">
-        <v>1153.553756422471</v>
+        <v>1153.53276255657</v>
       </c>
       <c r="AQ41">
-        <v>858.1761670991827</v>
+        <v>858.1798925180673</v>
       </c>
       <c r="AR41">
-        <v>15.32498942812148</v>
+        <v>15.30772098110611</v>
       </c>
       <c r="AS41">
-        <v>149.8800489793226</v>
+        <v>149.8805085778986</v>
       </c>
       <c r="AT41">
-        <v>1.417213421191986</v>
+        <v>1.415761241229261</v>
       </c>
       <c r="AU41">
-        <v>110.8428388297488</v>
+        <v>110.8433789449373</v>
       </c>
       <c r="AV41">
         <v>45.56959493283424</v>
@@ -6746,22 +6746,22 @@
         <v>76</v>
       </c>
       <c r="S42">
-        <v>188.9803617262359</v>
+        <v>188.9379700092221</v>
       </c>
       <c r="T42">
         <v>6.989583333333333</v>
       </c>
       <c r="U42">
-        <v>373.2334836999999</v>
+        <v>384.7244175000005</v>
       </c>
       <c r="V42" t="s">
         <v>118</v>
       </c>
       <c r="W42">
-        <v>188.9803617262359</v>
+        <v>188.9379700092221</v>
       </c>
       <c r="X42">
-        <v>170.9803617262359</v>
+        <v>170.9379700092221</v>
       </c>
       <c r="Y42">
         <v>18</v>
@@ -6782,19 +6782,19 @@
         <v>0</v>
       </c>
       <c r="AE42">
-        <v>0.0938273489992313</v>
+        <v>0.0938024988767759</v>
       </c>
       <c r="AF42">
-        <v>0.0938273489992313</v>
+        <v>0.0938024988767759</v>
       </c>
       <c r="AG42">
-        <v>0.08489048240336375</v>
+        <v>0.0848659945854492</v>
       </c>
       <c r="AI42">
-        <v>46.01171857456674</v>
+        <v>45.90180020130863</v>
       </c>
       <c r="AJ42">
-        <v>140.7987880405247</v>
+        <v>140.8085547682108</v>
       </c>
       <c r="AL42">
         <v>38.34277198211625</v>
@@ -6803,34 +6803,34 @@
         <v>1634.665974366615</v>
       </c>
       <c r="AN42">
-        <v>379.4627817147721</v>
+        <v>379.5444386994738</v>
       </c>
       <c r="AO42">
-        <v>2014.128756081387</v>
+        <v>2014.210413066089</v>
       </c>
       <c r="AP42">
-        <v>1030.10040320768</v>
+        <v>1030.081656105858</v>
       </c>
       <c r="AQ42">
-        <v>1037.358666780429</v>
+        <v>1035.833995801629</v>
       </c>
       <c r="AR42">
-        <v>19.99061604002119</v>
+        <v>18.42645383330082</v>
       </c>
       <c r="AS42">
-        <v>144.139902496823</v>
+        <v>143.8741379997451</v>
       </c>
       <c r="AT42">
-        <v>3.34111445629829</v>
+        <v>3.065583231534291</v>
       </c>
       <c r="AU42">
-        <v>81.12981202611559</v>
+        <v>80.93496386817176</v>
       </c>
       <c r="AV42">
-        <v>93.35583776078505</v>
+        <v>93.0152074912953</v>
       </c>
       <c r="AW42">
-        <v>15.83014488885556</v>
+        <v>15.77238496029737</v>
       </c>
     </row>
     <row r="43" spans="1:49">
@@ -6889,22 +6889,22 @@
         <v>76</v>
       </c>
       <c r="S43">
-        <v>250.690261840131</v>
+        <v>188.9908425109268</v>
       </c>
       <c r="T43">
         <v>6.989583333333333</v>
       </c>
       <c r="U43">
-        <v>455.6278720999999</v>
+        <v>435.2796846000001</v>
       </c>
       <c r="V43" t="s">
         <v>119</v>
       </c>
       <c r="W43">
-        <v>250.690261840131</v>
+        <v>188.9908425109268</v>
       </c>
       <c r="X43">
-        <v>232.690261840131</v>
+        <v>170.9908425109268</v>
       </c>
       <c r="Y43">
         <v>18</v>
@@ -6925,19 +6925,19 @@
         <v>0</v>
       </c>
       <c r="AE43">
-        <v>0.1243592284554424</v>
+        <v>0.09382874861779683</v>
       </c>
       <c r="AF43">
-        <v>0.1243592284554424</v>
+        <v>0.09382874861779683</v>
       </c>
       <c r="AG43">
-        <v>0.1154300179796663</v>
+        <v>0.08489224432647015</v>
       </c>
       <c r="AI43">
-        <v>105.411090811222</v>
+        <v>45.90180020130863</v>
       </c>
       <c r="AJ43">
-        <v>133.4944520232119</v>
+        <v>140.8614272699155</v>
       </c>
       <c r="AL43">
         <v>38.34277198211625</v>
@@ -6946,34 +6946,34 @@
         <v>1634.665974366615</v>
       </c>
       <c r="AN43">
-        <v>381.189744213632</v>
+        <v>379.5444386994738</v>
       </c>
       <c r="AO43">
-        <v>2015.855718580247</v>
+        <v>2014.210413066089</v>
       </c>
       <c r="AP43">
-        <v>1030.10040320768</v>
+        <v>1030.081656105858</v>
       </c>
       <c r="AQ43">
-        <v>1076.15480656664</v>
+        <v>1035.79860739011</v>
       </c>
       <c r="AR43">
-        <v>60.99301292302296</v>
+        <v>18.42645383330084</v>
       </c>
       <c r="AS43">
-        <v>143.1608159296006</v>
+        <v>143.9270105014498</v>
       </c>
       <c r="AT43">
-        <v>9.666363906388725</v>
+        <v>3.065583231534293</v>
       </c>
       <c r="AU43">
-        <v>192.8681231215669</v>
+        <v>80.93496386817176</v>
       </c>
       <c r="AV43">
-        <v>36.65366098767088</v>
+        <v>93.0152074912953</v>
       </c>
       <c r="AW43">
-        <v>6.215280994302796</v>
+        <v>15.77238496029737</v>
       </c>
     </row>
     <row r="44" spans="1:49">
@@ -7032,22 +7032,22 @@
         <v>76</v>
       </c>
       <c r="S44">
-        <v>251.9745078067208</v>
+        <v>188.9379700092221</v>
       </c>
       <c r="T44">
         <v>6.989583333333333</v>
       </c>
       <c r="U44">
-        <v>464.5754904000005</v>
+        <v>425.6776641000006</v>
       </c>
       <c r="V44" t="s">
         <v>120</v>
       </c>
       <c r="W44">
-        <v>251.9745078067208</v>
+        <v>188.9379700092221</v>
       </c>
       <c r="X44">
-        <v>233.9745078067208</v>
+        <v>170.9379700092221</v>
       </c>
       <c r="Y44">
         <v>18</v>
@@ -7068,19 +7068,19 @@
         <v>0</v>
       </c>
       <c r="AE44">
-        <v>0.1249963008186839</v>
+        <v>0.0938024988767759</v>
       </c>
       <c r="AF44">
-        <v>0.1249963008186839</v>
+        <v>0.0938024988767759</v>
       </c>
       <c r="AG44">
-        <v>0.1160670903429078</v>
+        <v>0.0848659945854492</v>
       </c>
       <c r="AI44">
-        <v>108.7559495117227</v>
+        <v>45.90180020130863</v>
       </c>
       <c r="AJ44">
-        <v>134.052786149658</v>
+        <v>140.8085547682108</v>
       </c>
       <c r="AL44">
         <v>38.34277198211625</v>
@@ -7089,34 +7089,34 @@
         <v>1634.665974366615</v>
       </c>
       <c r="AN44">
-        <v>381.1897442136318</v>
+        <v>379.5444386994738</v>
       </c>
       <c r="AO44">
-        <v>2015.855718580247</v>
+        <v>2014.210413066089</v>
       </c>
       <c r="AP44">
-        <v>1030.10040320768</v>
+        <v>1030.081656105858</v>
       </c>
       <c r="AQ44">
-        <v>1076.225698372391</v>
+        <v>1035.833995801629</v>
       </c>
       <c r="AR44">
-        <v>58.82050021576902</v>
+        <v>18.42645383330082</v>
       </c>
       <c r="AS44">
-        <v>143.5058686517869</v>
+        <v>143.8741379997451</v>
       </c>
       <c r="AT44">
-        <v>9.453082502128916</v>
+        <v>3.065583231534291</v>
       </c>
       <c r="AU44">
-        <v>199.3325345440635</v>
+        <v>80.93496386817176</v>
       </c>
       <c r="AV44">
-        <v>52.0984961370788</v>
+        <v>93.0152074912953</v>
       </c>
       <c r="AW44">
-        <v>8.834227854659915</v>
+        <v>15.77238496029737</v>
       </c>
     </row>
     <row r="45" spans="1:49">
@@ -7175,22 +7175,22 @@
         <v>76</v>
       </c>
       <c r="S45">
-        <v>249.0223463575843</v>
+        <v>188.9908425109268</v>
       </c>
       <c r="T45">
         <v>6.989583333333333</v>
       </c>
       <c r="U45">
-        <v>424.2308979999998</v>
+        <v>332.8529132999993</v>
       </c>
       <c r="V45" t="s">
         <v>121</v>
       </c>
       <c r="W45">
-        <v>249.0223463575843</v>
+        <v>188.9908425109268</v>
       </c>
       <c r="X45">
-        <v>231.0223463575843</v>
+        <v>170.9908425109268</v>
       </c>
       <c r="Y45">
         <v>18</v>
@@ -7211,19 +7211,19 @@
         <v>0</v>
       </c>
       <c r="AE45">
-        <v>0.1235318302110277</v>
+        <v>0.09382874861779684</v>
       </c>
       <c r="AF45">
-        <v>0.1235318302110277</v>
+        <v>0.09382874861779684</v>
       </c>
       <c r="AG45">
-        <v>0.1146026197352515</v>
+        <v>0.08489224432647015</v>
       </c>
       <c r="AI45">
-        <v>108.5840102247713</v>
+        <v>45.90180020130863</v>
       </c>
       <c r="AJ45">
-        <v>135.519202795758</v>
+        <v>140.8614272699155</v>
       </c>
       <c r="AL45">
         <v>38.34277198211625</v>
@@ -7232,34 +7232,34 @@
         <v>1634.665974366615</v>
       </c>
       <c r="AN45">
-        <v>381.1897442136318</v>
+        <v>379.5444386994737</v>
       </c>
       <c r="AO45">
-        <v>2015.855718580247</v>
+        <v>2014.210413066089</v>
       </c>
       <c r="AP45">
-        <v>1030.10040320768</v>
+        <v>1030.081656105858</v>
       </c>
       <c r="AQ45">
-        <v>1079.295038024813</v>
+        <v>1035.79860739011</v>
       </c>
       <c r="AR45">
-        <v>58.43530967695382</v>
+        <v>18.42645383330081</v>
       </c>
       <c r="AS45">
-        <v>144.6523480851086</v>
+        <v>143.9270105014498</v>
       </c>
       <c r="AT45">
-        <v>9.13314528935061</v>
+        <v>3.06558323153429</v>
       </c>
       <c r="AU45">
-        <v>200.3019584486958</v>
+        <v>80.93496386817176</v>
       </c>
       <c r="AV45">
-        <v>77.14239348599185</v>
+        <v>93.0152074912953</v>
       </c>
       <c r="AW45">
-        <v>13.08086666294503</v>
+        <v>15.77238496029737</v>
       </c>
     </row>
     <row r="46" spans="1:49">
@@ -7318,22 +7318,22 @@
         <v>77</v>
       </c>
       <c r="S46">
-        <v>254.2113540051074</v>
+        <v>254.2132292990134</v>
       </c>
       <c r="T46">
         <v>6.989583333333333</v>
       </c>
       <c r="U46">
-        <v>272.4560555999997</v>
+        <v>278.9703014999996</v>
       </c>
       <c r="V46" t="s">
         <v>122</v>
       </c>
       <c r="W46">
-        <v>254.2113540051074</v>
+        <v>254.2132292990134</v>
       </c>
       <c r="X46">
-        <v>236.2113540051074</v>
+        <v>236.2132292990134</v>
       </c>
       <c r="Y46">
         <v>18</v>
@@ -7354,19 +7354,19 @@
         <v>0</v>
       </c>
       <c r="AE46">
-        <v>0.126207336253727</v>
+        <v>0.1262082672737025</v>
       </c>
       <c r="AF46">
-        <v>0.126207336253727</v>
+        <v>0.1262082672737025</v>
       </c>
       <c r="AG46">
-        <v>0.1172709452673455</v>
+        <v>0.117271876287321</v>
       </c>
       <c r="AI46">
-        <v>59.71986285727066</v>
+        <v>59.71995784672857</v>
       </c>
       <c r="AJ46">
-        <v>176.4914911478368</v>
+        <v>176.4932714522849</v>
       </c>
       <c r="AL46">
         <v>38.34277198211625</v>
@@ -7381,22 +7381,22 @@
         <v>2014.235951339955</v>
       </c>
       <c r="AP46">
-        <v>1030.10040320768</v>
+        <v>1030.081656105858</v>
       </c>
       <c r="AQ46">
-        <v>995.2118128313997</v>
+        <v>995.2167502560851</v>
       </c>
       <c r="AR46">
-        <v>5.418400529732356</v>
+        <v>5.404590852597429</v>
       </c>
       <c r="AS46">
-        <v>176.9831992875289</v>
+        <v>176.9838427017709</v>
       </c>
       <c r="AT46">
-        <v>0.4917081396921502</v>
+        <v>0.4905712494860361</v>
       </c>
       <c r="AU46">
-        <v>106.7799368615322</v>
+        <v>106.7801216091446</v>
       </c>
       <c r="AV46">
         <v>0</v>
@@ -7461,22 +7461,22 @@
         <v>76</v>
       </c>
       <c r="S47">
-        <v>190.2305016616551</v>
+        <v>190.2829718416778</v>
       </c>
       <c r="T47">
         <v>6.989583333333333</v>
       </c>
       <c r="U47">
-        <v>435.5904556999994</v>
+        <v>395.9756718999997</v>
       </c>
       <c r="V47" t="s">
         <v>123</v>
       </c>
       <c r="W47">
-        <v>190.2305016616551</v>
+        <v>190.2829718416778</v>
       </c>
       <c r="X47">
-        <v>172.2305016616551</v>
+        <v>172.2829718416778</v>
       </c>
       <c r="Y47">
         <v>18</v>
@@ -7497,19 +7497,19 @@
         <v>0</v>
       </c>
       <c r="AE47">
-        <v>0.09686522856055312</v>
+        <v>0.09689194633680939</v>
       </c>
       <c r="AF47">
-        <v>0.09686522856055312</v>
+        <v>0.09689194633680939</v>
       </c>
       <c r="AG47">
-        <v>0.08769964208067785</v>
+        <v>0.08772635985693411</v>
       </c>
       <c r="AI47">
-        <v>51.20863061777472</v>
+        <v>51.20863061777479</v>
       </c>
       <c r="AJ47">
-        <v>129.210226592164</v>
+        <v>129.2626967721866</v>
       </c>
       <c r="AL47">
         <v>40.05961251862892</v>
@@ -7518,34 +7518,34 @@
         <v>1605.829691803277</v>
       </c>
       <c r="AN47">
-        <v>358.0380911828217</v>
+        <v>358.0380911828215</v>
       </c>
       <c r="AO47">
         <v>1963.867782986098</v>
       </c>
       <c r="AP47">
-        <v>1052.101807248465</v>
+        <v>1052.082659736586</v>
       </c>
       <c r="AQ47">
-        <v>970.6445434739029</v>
+        <v>970.7678199399297</v>
       </c>
       <c r="AR47">
-        <v>29.59650455234171</v>
+        <v>29.70623542826065</v>
       </c>
       <c r="AS47">
-        <v>134.000723299207</v>
+        <v>134.0908562888262</v>
       </c>
       <c r="AT47">
-        <v>4.79049670704298</v>
+        <v>4.828159516639513</v>
       </c>
       <c r="AU47">
-        <v>85.3477176962912</v>
+        <v>85.34771769629131</v>
       </c>
       <c r="AV47">
-        <v>48.28956383282031</v>
+        <v>48.28956383282041</v>
       </c>
       <c r="AW47">
-        <v>8.188355548283566</v>
+        <v>8.188355548283583</v>
       </c>
     </row>
     <row r="48" spans="1:49">
@@ -7604,22 +7604,22 @@
         <v>76</v>
       </c>
       <c r="S48">
-        <v>262.8140556218761</v>
+        <v>190.2438428358283</v>
       </c>
       <c r="T48">
         <v>6.989583333333333</v>
       </c>
       <c r="U48">
-        <v>468.1934593999995</v>
+        <v>465.4631623000005</v>
       </c>
       <c r="V48" t="s">
         <v>124</v>
       </c>
       <c r="W48">
-        <v>262.8140556218761</v>
+        <v>190.2438428358283</v>
       </c>
       <c r="X48">
-        <v>244.8140556218761</v>
+        <v>172.2438428358283</v>
       </c>
       <c r="Y48">
         <v>18</v>
@@ -7640,19 +7640,19 @@
         <v>0</v>
       </c>
       <c r="AE48">
-        <v>0.133698098918743</v>
+        <v>0.09687202187642129</v>
       </c>
       <c r="AF48">
-        <v>0.133698098918743</v>
+        <v>0.09687202187642129</v>
       </c>
       <c r="AG48">
-        <v>0.1245411846325458</v>
+        <v>0.08770643539654602</v>
       </c>
       <c r="AI48">
-        <v>118.4201308144363</v>
+        <v>51.20863061777475</v>
       </c>
       <c r="AJ48">
-        <v>126.3939248074397</v>
+        <v>129.2235677663371</v>
       </c>
       <c r="AL48">
         <v>40.05961251862892</v>
@@ -7661,34 +7661,34 @@
         <v>1605.829691803277</v>
       </c>
       <c r="AN48">
-        <v>359.8980017640438</v>
+        <v>358.0380911828217</v>
       </c>
       <c r="AO48">
-        <v>1965.72769356732</v>
+        <v>1963.867782986098</v>
       </c>
       <c r="AP48">
-        <v>1052.101807248465</v>
+        <v>1052.082659736586</v>
       </c>
       <c r="AQ48">
-        <v>992.5598384393498</v>
+        <v>970.0991025222288</v>
       </c>
       <c r="AR48">
-        <v>54.56937860352765</v>
+        <v>29.08217642386837</v>
       </c>
       <c r="AS48">
-        <v>134.0085913138798</v>
+        <v>134.0007059746816</v>
       </c>
       <c r="AT48">
-        <v>7.614666506440027</v>
+        <v>4.777138208344562</v>
       </c>
       <c r="AU48">
-        <v>197.3668846907273</v>
+        <v>85.34771769629126</v>
       </c>
       <c r="AV48">
-        <v>0</v>
+        <v>48.28956383282036</v>
       </c>
       <c r="AW48">
-        <v>0</v>
+        <v>8.188355548283576</v>
       </c>
     </row>
     <row r="49" spans="1:49">
@@ -7747,22 +7747,22 @@
         <v>76</v>
       </c>
       <c r="S49">
-        <v>265.8093092748006</v>
+        <v>190.3000108169913</v>
       </c>
       <c r="T49">
         <v>6.989583333333333</v>
       </c>
       <c r="U49">
-        <v>472.5160438000003</v>
+        <v>496.2007016000007</v>
       </c>
       <c r="V49" t="s">
         <v>125</v>
       </c>
       <c r="W49">
-        <v>265.8093092748006</v>
+        <v>190.3000108169913</v>
       </c>
       <c r="X49">
-        <v>247.8093092748006</v>
+        <v>172.3000108169913</v>
       </c>
       <c r="Y49">
         <v>18</v>
@@ -7783,19 +7783,19 @@
         <v>0</v>
       </c>
       <c r="AE49">
-        <v>0.1352218367501457</v>
+        <v>0.09690062257024072</v>
       </c>
       <c r="AF49">
-        <v>0.1352218367501457</v>
+        <v>0.09690062257024072</v>
       </c>
       <c r="AG49">
-        <v>0.1260649224639485</v>
+        <v>0.08773503609036545</v>
       </c>
       <c r="AI49">
-        <v>121.5420291263973</v>
+        <v>51.20863061777479</v>
       </c>
       <c r="AJ49">
-        <v>126.2672801484033</v>
+        <v>129.2797357475001</v>
       </c>
       <c r="AL49">
         <v>40.05961251862892</v>
@@ -7804,34 +7804,34 @@
         <v>1605.829691803277</v>
       </c>
       <c r="AN49">
-        <v>359.8980017640438</v>
+        <v>358.0380911828217</v>
       </c>
       <c r="AO49">
-        <v>1965.72769356732</v>
+        <v>1963.867782986098</v>
       </c>
       <c r="AP49">
-        <v>1052.101807248465</v>
+        <v>1052.082659736586</v>
       </c>
       <c r="AQ49">
-        <v>984.7437232460644</v>
+        <v>969.8221213564004</v>
       </c>
       <c r="AR49">
-        <v>46.81900643948471</v>
+        <v>28.78241061590585</v>
       </c>
       <c r="AS49">
-        <v>133.2280932257448</v>
+        <v>133.9978289483931</v>
       </c>
       <c r="AT49">
-        <v>6.960813077341501</v>
+        <v>4.718093200892997</v>
       </c>
       <c r="AU49">
-        <v>202.5700485439955</v>
+        <v>85.34771769629131</v>
       </c>
       <c r="AV49">
-        <v>0</v>
+        <v>48.28956383282041</v>
       </c>
       <c r="AW49">
-        <v>0</v>
+        <v>8.188355548283583</v>
       </c>
     </row>
     <row r="50" spans="1:49">
@@ -7890,22 +7890,22 @@
         <v>76</v>
       </c>
       <c r="S50">
-        <v>260.221495762614</v>
+        <v>190.2447733735055</v>
       </c>
       <c r="T50">
         <v>6.989583333333333</v>
       </c>
       <c r="U50">
-        <v>420.6445156999998</v>
+        <v>414.2099077999992</v>
       </c>
       <c r="V50" t="s">
         <v>126</v>
       </c>
       <c r="W50">
-        <v>260.221495762614</v>
+        <v>190.2447733735055</v>
       </c>
       <c r="X50">
-        <v>242.2214957626141</v>
+        <v>172.2447733735055</v>
       </c>
       <c r="Y50">
         <v>18</v>
@@ -7926,19 +7926,19 @@
         <v>0</v>
       </c>
       <c r="AE50">
-        <v>0.1323792184513486</v>
+        <v>0.09687249570550757</v>
       </c>
       <c r="AF50">
-        <v>0.1323792184513486</v>
+        <v>0.09687249570550757</v>
       </c>
       <c r="AG50">
-        <v>0.1232223041651515</v>
+        <v>0.0877069092256323</v>
       </c>
       <c r="AI50">
-        <v>116.329019758073</v>
+        <v>51.20863061777475</v>
       </c>
       <c r="AJ50">
-        <v>125.892476004541</v>
+        <v>129.2244983040143</v>
       </c>
       <c r="AL50">
         <v>40.05961251862892</v>
@@ -7947,34 +7947,34 @@
         <v>1605.829691803277</v>
       </c>
       <c r="AN50">
-        <v>359.8980017640439</v>
+        <v>358.0380911828216</v>
       </c>
       <c r="AO50">
-        <v>1965.72769356732</v>
+        <v>1963.867782986098</v>
       </c>
       <c r="AP50">
-        <v>1052.101807248465</v>
+        <v>1052.082659736586</v>
       </c>
       <c r="AQ50">
-        <v>993.1465608720317</v>
+        <v>970.199500242354</v>
       </c>
       <c r="AR50">
-        <v>54.93689527623572</v>
+        <v>29.18279382950724</v>
       </c>
       <c r="AS50">
-        <v>134.6751665170279</v>
+        <v>134.0269649233066</v>
       </c>
       <c r="AT50">
-        <v>8.782690512486905</v>
+        <v>4.802466619292342</v>
       </c>
       <c r="AU50">
-        <v>193.8816995967884</v>
+        <v>85.34771769629126</v>
       </c>
       <c r="AV50">
-        <v>0</v>
+        <v>48.28956383282036</v>
       </c>
       <c r="AW50">
-        <v>0</v>
+        <v>8.188355548283576</v>
       </c>
     </row>
     <row r="51" spans="1:49">
@@ -8033,22 +8033,22 @@
         <v>77</v>
       </c>
       <c r="S51">
-        <v>245.9523428908903</v>
+        <v>245.954432230628</v>
       </c>
       <c r="T51">
         <v>6.989583333333333</v>
       </c>
       <c r="U51">
-        <v>306.1558389000002</v>
+        <v>268.7693555000005</v>
       </c>
       <c r="V51" t="s">
         <v>127</v>
       </c>
       <c r="W51">
-        <v>245.9523428908903</v>
+        <v>245.954432230628</v>
       </c>
       <c r="X51">
-        <v>227.9523428908903</v>
+        <v>227.954432230628</v>
       </c>
       <c r="Y51">
         <v>18</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="AE51">
-        <v>0.1252309768224585</v>
+        <v>0.1252320406466661</v>
       </c>
       <c r="AF51">
-        <v>0.1252309768224585</v>
+        <v>0.1252320406466661</v>
       </c>
       <c r="AG51">
-        <v>0.1160659590945963</v>
+        <v>0.1160670229188039</v>
       </c>
       <c r="AI51">
-        <v>63.96444588823836</v>
+        <v>63.96456427012568</v>
       </c>
       <c r="AJ51">
-        <v>166.3681475918102</v>
+        <v>166.3701185496606</v>
       </c>
       <c r="AL51">
         <v>40.05961251862892</v>
@@ -8096,22 +8096,22 @@
         <v>1963.989654409387</v>
       </c>
       <c r="AP51">
-        <v>1052.101807248465</v>
+        <v>1052.082659736586</v>
       </c>
       <c r="AQ51">
-        <v>925.9239834797014</v>
+        <v>925.9320516760943</v>
       </c>
       <c r="AR51">
-        <v>5.318821398843534</v>
+        <v>5.307742083356868</v>
       </c>
       <c r="AS51">
-        <v>166.8711795355701</v>
+        <v>166.8722752607856</v>
       </c>
       <c r="AT51">
-        <v>0.5030319437598654</v>
+        <v>0.5021567111249845</v>
       </c>
       <c r="AU51">
-        <v>106.6074098137306</v>
+        <v>106.6076071168761</v>
       </c>
       <c r="AV51">
         <v>14.03716070772726</v>
@@ -8176,22 +8176,22 @@
         <v>76</v>
       </c>
       <c r="S52">
-        <v>178.0499223423465</v>
+        <v>177.9644063977861</v>
       </c>
       <c r="T52">
         <v>6.989583333333333</v>
       </c>
       <c r="U52">
-        <v>507.1834584999997</v>
+        <v>452.2962635999993</v>
       </c>
       <c r="V52" t="s">
         <v>128</v>
       </c>
       <c r="W52">
-        <v>178.0499223423465</v>
+        <v>177.9644063977861</v>
       </c>
       <c r="X52">
-        <v>160.0499223423465</v>
+        <v>159.9644063977861</v>
       </c>
       <c r="Y52">
         <v>18</v>
@@ -8212,19 +8212,19 @@
         <v>0</v>
       </c>
       <c r="AE52">
-        <v>0.09095770591964626</v>
+        <v>0.09093642515559672</v>
       </c>
       <c r="AF52">
-        <v>0.09095770591964626</v>
+        <v>0.09093642515559672</v>
       </c>
       <c r="AG52">
-        <v>0.08176231462143708</v>
+        <v>0.08173876768052814</v>
       </c>
       <c r="AI52">
-        <v>45.58343851154901</v>
+        <v>45.58621099996886</v>
       </c>
       <c r="AJ52">
-        <v>132.4031169871476</v>
+        <v>132.3048462378462</v>
       </c>
       <c r="AL52">
         <v>43.92250372578241</v>
@@ -8233,34 +8233,34 @@
         <v>1554.004327868852</v>
       </c>
       <c r="AN52">
-        <v>403.4980139298639</v>
+        <v>403.0157121566955</v>
       </c>
       <c r="AO52">
-        <v>1957.502341798716</v>
+        <v>1957.020040025547</v>
       </c>
       <c r="AP52">
-        <v>1037.603305179612</v>
+        <v>1037.58442153026</v>
       </c>
       <c r="AQ52">
-        <v>976.0906129882255</v>
+        <v>975.893790006613</v>
       </c>
       <c r="AR52">
-        <v>20.93676505101979</v>
+        <v>21.18692849546433</v>
       </c>
       <c r="AS52">
-        <v>135.7197251332195</v>
+        <v>135.6704371463658</v>
       </c>
       <c r="AT52">
-        <v>3.316608146071945</v>
+        <v>3.365590908519673</v>
       </c>
       <c r="AU52">
-        <v>75.97239751924835</v>
+        <v>75.97701833328144</v>
       </c>
       <c r="AV52">
-        <v>105.7785274029793</v>
+        <v>105.7196582321979</v>
       </c>
       <c r="AW52">
-        <v>17.93663315635014</v>
+        <v>17.92665084002895</v>
       </c>
     </row>
     <row r="53" spans="1:49">
@@ -8319,22 +8319,22 @@
         <v>76</v>
       </c>
       <c r="S53">
-        <v>254.5699716540138</v>
+        <v>178.0346623614687</v>
       </c>
       <c r="T53">
         <v>6.989583333333333</v>
       </c>
       <c r="U53">
-        <v>541.3937754000008</v>
+        <v>476.5191310999999</v>
       </c>
       <c r="V53" t="s">
         <v>129</v>
       </c>
       <c r="W53">
-        <v>254.5699716540138</v>
+        <v>178.0346623614687</v>
       </c>
       <c r="X53">
-        <v>236.5699716540138</v>
+        <v>160.0346623614687</v>
       </c>
       <c r="Y53">
         <v>18</v>
@@ -8355,19 +8355,19 @@
         <v>0</v>
       </c>
       <c r="AE53">
-        <v>0.1298665146284924</v>
+        <v>0.09096116016822213</v>
       </c>
       <c r="AF53">
-        <v>0.1298665146284924</v>
+        <v>0.09096116016822213</v>
       </c>
       <c r="AG53">
-        <v>0.1206839812443512</v>
+        <v>0.08176463146245953</v>
       </c>
       <c r="AI53">
-        <v>112.5134418548028</v>
+        <v>45.58621099996883</v>
       </c>
       <c r="AJ53">
-        <v>124.0565297992111</v>
+        <v>132.3751022015289</v>
       </c>
       <c r="AL53">
         <v>43.92250372578241</v>
@@ -8376,34 +8376,34 @@
         <v>1554.004327868852</v>
       </c>
       <c r="AN53">
-        <v>406.2390218680616</v>
+        <v>403.2559141093096</v>
       </c>
       <c r="AO53">
-        <v>1960.243349736913</v>
+        <v>1957.260241978162</v>
       </c>
       <c r="AP53">
-        <v>1037.603305179612</v>
+        <v>1037.58442153026</v>
       </c>
       <c r="AQ53">
-        <v>1030.591991054014</v>
+        <v>975.8703675160509</v>
       </c>
       <c r="AR53">
-        <v>82.47693257453327</v>
+        <v>20.94672654285015</v>
       </c>
       <c r="AS53">
-        <v>135.902974253345</v>
+        <v>135.6899247338814</v>
       </c>
       <c r="AT53">
-        <v>11.84644445413389</v>
+        <v>3.314822532352506</v>
       </c>
       <c r="AU53">
-        <v>187.522403091338</v>
+        <v>75.97701833328141</v>
       </c>
       <c r="AV53">
-        <v>0</v>
+        <v>105.7196582321982</v>
       </c>
       <c r="AW53">
-        <v>0</v>
+        <v>17.926650840029</v>
       </c>
     </row>
     <row r="54" spans="1:49">
@@ -8462,22 +8462,22 @@
         <v>76</v>
       </c>
       <c r="S54">
-        <v>256.1241243714175</v>
+        <v>177.9623620621556</v>
       </c>
       <c r="T54">
         <v>6.989583333333333</v>
       </c>
       <c r="U54">
-        <v>552.7204517999999</v>
+        <v>498.7904230000004</v>
       </c>
       <c r="V54" t="s">
         <v>130</v>
       </c>
       <c r="W54">
-        <v>256.1241243714175</v>
+        <v>177.9623620621556</v>
       </c>
       <c r="X54">
-        <v>238.1241243714175</v>
+        <v>159.9623620621556</v>
       </c>
       <c r="Y54">
         <v>18</v>
@@ -8498,19 +8498,19 @@
         <v>0</v>
       </c>
       <c r="AE54">
-        <v>0.1306593512513598</v>
+        <v>0.0909242206249961</v>
       </c>
       <c r="AF54">
-        <v>0.1306593512513598</v>
+        <v>0.0909242206249961</v>
       </c>
       <c r="AG54">
-        <v>0.1214768178672186</v>
+        <v>0.0817276919192335</v>
       </c>
       <c r="AI54">
-        <v>113.8307013399884</v>
+        <v>45.58621099996883</v>
       </c>
       <c r="AJ54">
-        <v>124.2934230314291</v>
+        <v>132.3028019022157</v>
       </c>
       <c r="AL54">
         <v>43.92250372578241</v>
@@ -8519,34 +8519,34 @@
         <v>1554.004327868852</v>
       </c>
       <c r="AN54">
-        <v>406.2390218680616</v>
+        <v>403.2559141093094</v>
       </c>
       <c r="AO54">
-        <v>1960.243349736913</v>
+        <v>1957.260241978161</v>
       </c>
       <c r="AP54">
-        <v>1037.603305179612</v>
+        <v>1037.58442153026</v>
       </c>
       <c r="AQ54">
-        <v>1021.249128260146</v>
+        <v>975.9213730965125</v>
       </c>
       <c r="AR54">
-        <v>73.1240961561162</v>
+        <v>20.94672654285015</v>
       </c>
       <c r="AS54">
-        <v>135.2218693353421</v>
+        <v>135.6321746581152</v>
       </c>
       <c r="AT54">
-        <v>10.92844630391294</v>
+        <v>3.329372755899452</v>
       </c>
       <c r="AU54">
-        <v>189.7178355666473</v>
+        <v>75.97701833328141</v>
       </c>
       <c r="AV54">
-        <v>0</v>
+        <v>105.7196582321982</v>
       </c>
       <c r="AW54">
-        <v>0</v>
+        <v>17.926650840029</v>
       </c>
     </row>
     <row r="55" spans="1:49">
@@ -8605,22 +8605,22 @@
         <v>76</v>
       </c>
       <c r="S55">
-        <v>260.5776954470174</v>
+        <v>178.1026387324816</v>
       </c>
       <c r="T55">
         <v>6.989583333333333</v>
       </c>
       <c r="U55">
-        <v>447.6164847000009</v>
+        <v>436.1808466000002</v>
       </c>
       <c r="V55" t="s">
         <v>131</v>
       </c>
       <c r="W55">
-        <v>260.5776954470174</v>
+        <v>178.1026387324816</v>
       </c>
       <c r="X55">
-        <v>242.5776954470174</v>
+        <v>160.1026387324816</v>
       </c>
       <c r="Y55">
         <v>18</v>
@@ -8641,19 +8641,19 @@
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>0.1329312993113788</v>
+        <v>0.09100195198336843</v>
       </c>
       <c r="AF55">
-        <v>0.1329312993113788</v>
+        <v>0.09100195198336843</v>
       </c>
       <c r="AG55">
-        <v>0.1237487659272376</v>
+        <v>0.08180481067564735</v>
       </c>
       <c r="AI55">
-        <v>117.4942109059468</v>
+        <v>45.59955874780169</v>
       </c>
       <c r="AJ55">
-        <v>125.0834845410707</v>
+        <v>132.3816723945677</v>
       </c>
       <c r="AL55">
         <v>43.92250372578241</v>
@@ -8662,34 +8662,34 @@
         <v>1554.004327868852</v>
       </c>
       <c r="AN55">
-        <v>406.2390218680615</v>
+        <v>403.1255451808141</v>
       </c>
       <c r="AO55">
-        <v>1960.243349736913</v>
+        <v>1957.129873049666</v>
       </c>
       <c r="AP55">
-        <v>1037.603305179612</v>
+        <v>1037.58442153026</v>
       </c>
       <c r="AQ55">
-        <v>1025.54976778689</v>
+        <v>976.0594604394641</v>
       </c>
       <c r="AR55">
-        <v>77.33777413032624</v>
+        <v>21.30945917451586</v>
       </c>
       <c r="AS55">
-        <v>136.9402461368575</v>
+        <v>135.7396842444076</v>
       </c>
       <c r="AT55">
-        <v>11.85676159578679</v>
+        <v>3.35801184983994</v>
       </c>
       <c r="AU55">
-        <v>195.8236848432446</v>
+        <v>75.99926457966949</v>
       </c>
       <c r="AV55">
-        <v>0</v>
+        <v>105.4362410532141</v>
       </c>
       <c r="AW55">
-        <v>0</v>
+        <v>17.8785924098877</v>
       </c>
     </row>
     <row r="56" spans="1:49">
@@ -8748,22 +8748,22 @@
         <v>77</v>
       </c>
       <c r="S56">
-        <v>251.4981133670192</v>
+        <v>251.4999556316404</v>
       </c>
       <c r="T56">
         <v>6.989583333333333</v>
       </c>
       <c r="U56">
-        <v>327.4213232999991</v>
+        <v>294.6311657000006</v>
       </c>
       <c r="V56" t="s">
         <v>132</v>
       </c>
       <c r="W56">
-        <v>251.4981133670192</v>
+        <v>251.4999556316404</v>
       </c>
       <c r="X56">
-        <v>233.4981133670192</v>
+        <v>233.4999556316404</v>
       </c>
       <c r="Y56">
         <v>18</v>
@@ -8784,19 +8784,19 @@
         <v>0</v>
       </c>
       <c r="AE56">
-        <v>0.1284683931271557</v>
+        <v>0.1284693341790485</v>
       </c>
       <c r="AF56">
-        <v>0.1284683931271557</v>
+        <v>0.1284693341790485</v>
       </c>
       <c r="AG56">
-        <v>0.1192737671900848</v>
+        <v>0.1192747082419775</v>
       </c>
       <c r="AI56">
-        <v>66.04182436294143</v>
+        <v>66.04188367339792</v>
       </c>
       <c r="AJ56">
-        <v>169.6238025928271</v>
+        <v>169.6255855469918</v>
       </c>
       <c r="AL56">
         <v>43.92250372578241</v>
@@ -8811,22 +8811,22 @@
         <v>1957.665284394823</v>
       </c>
       <c r="AP56">
-        <v>1037.603305179612</v>
+        <v>1037.58442153026</v>
       </c>
       <c r="AQ56">
-        <v>934.356829913645</v>
+        <v>934.3618268560856</v>
       </c>
       <c r="AR56">
-        <v>6.574777808266367</v>
+        <v>6.560891101354276</v>
       </c>
       <c r="AS56">
-        <v>170.1923902880309</v>
+        <v>170.1930708557173</v>
       </c>
       <c r="AT56">
-        <v>0.5685876952038409</v>
+        <v>0.5674853087255014</v>
       </c>
       <c r="AU56">
-        <v>110.069707271569</v>
+        <v>110.0698061223299</v>
       </c>
       <c r="AV56">
         <v>12.78257706144148</v>
@@ -8891,22 +8891,22 @@
         <v>76</v>
       </c>
       <c r="S57">
-        <v>207.996442870984</v>
+        <v>207.9501036212737</v>
       </c>
       <c r="T57">
         <v>6.989583333333333</v>
       </c>
       <c r="U57">
-        <v>489.0198357000008</v>
+        <v>483.8472502000004</v>
       </c>
       <c r="V57" t="s">
         <v>133</v>
       </c>
       <c r="W57">
-        <v>207.996442870984</v>
+        <v>207.9501036212737</v>
       </c>
       <c r="X57">
-        <v>189.996442870984</v>
+        <v>189.9501036212737</v>
       </c>
       <c r="Y57">
         <v>18</v>
@@ -8927,19 +8927,19 @@
         <v>0</v>
       </c>
       <c r="AE57">
-        <v>0.100234577776029</v>
+        <v>0.1002082775095157</v>
       </c>
       <c r="AF57">
-        <v>0.100234577776029</v>
+        <v>0.1002082775095157</v>
       </c>
       <c r="AG57">
-        <v>0.0915602832781772</v>
+        <v>0.09153432657724622</v>
       </c>
       <c r="AI57">
-        <v>53.135418041485</v>
+        <v>53.02708362401505</v>
       </c>
       <c r="AJ57">
-        <v>141.3675150493374</v>
+        <v>141.3995058350322</v>
       </c>
       <c r="AL57">
         <v>49.07302533532042</v>
@@ -8948,34 +8948,34 @@
         <v>1655.363120119227</v>
       </c>
       <c r="AN57">
-        <v>419.7335928708297</v>
+        <v>419.8157851516165</v>
       </c>
       <c r="AO57">
-        <v>2075.096712990057</v>
+        <v>2075.178905270844</v>
       </c>
       <c r="AP57">
-        <v>1073.05586069333</v>
+        <v>1073.036331832437</v>
       </c>
       <c r="AQ57">
-        <v>1045.470350233426</v>
+        <v>1044.931806807434</v>
       </c>
       <c r="AR57">
-        <v>17.29758690612147</v>
+        <v>16.68930792136013</v>
       </c>
       <c r="AS57">
-        <v>144.1598967858752</v>
+        <v>144.1260969711377</v>
       </c>
       <c r="AT57">
-        <v>2.792381736537753</v>
+        <v>2.726591136105446</v>
       </c>
       <c r="AU57">
-        <v>88.55903006914167</v>
+        <v>88.37847270669175</v>
       </c>
       <c r="AV57">
-        <v>26.57633096775884</v>
+        <v>26.39938475255792</v>
       </c>
       <c r="AW57">
-        <v>4.506490219838433</v>
+        <v>4.476485837773515</v>
       </c>
     </row>
     <row r="58" spans="1:49">
@@ -9034,22 +9034,22 @@
         <v>76</v>
       </c>
       <c r="S58">
-        <v>271.6597604523502</v>
+        <v>208.0662568595834</v>
       </c>
       <c r="T58">
         <v>6.989583333333333</v>
       </c>
       <c r="U58">
-        <v>565.739664499999</v>
+        <v>533.7626937000005</v>
       </c>
       <c r="V58" t="s">
         <v>134</v>
       </c>
       <c r="W58">
-        <v>271.6597604523502</v>
+        <v>208.0662568595834</v>
       </c>
       <c r="X58">
-        <v>253.6597604523501</v>
+        <v>190.0662568595834</v>
       </c>
       <c r="Y58">
         <v>18</v>
@@ -9070,19 +9070,19 @@
         <v>0</v>
       </c>
       <c r="AE58">
-        <v>0.1308837583062647</v>
+        <v>0.1002642501478336</v>
       </c>
       <c r="AF58">
-        <v>0.1308837583062647</v>
+        <v>0.1002642501478336</v>
       </c>
       <c r="AG58">
-        <v>0.1222114851451978</v>
+        <v>0.09159029921556411</v>
       </c>
       <c r="AI58">
-        <v>117.0477295656693</v>
+        <v>53.2331098988131</v>
       </c>
       <c r="AJ58">
-        <v>136.6120308866809</v>
+        <v>141.3666939911806</v>
       </c>
       <c r="AL58">
         <v>49.07302533532042</v>
@@ -9091,34 +9091,34 @@
         <v>1655.363120119227</v>
       </c>
       <c r="AN58">
-        <v>420.2172572158519</v>
+        <v>419.8157851516165</v>
       </c>
       <c r="AO58">
-        <v>2075.580377335079</v>
+        <v>2075.178905270844</v>
       </c>
       <c r="AP58">
-        <v>1073.05586069333</v>
+        <v>1073.036331832437</v>
       </c>
       <c r="AQ58">
-        <v>1069.023234058107</v>
+        <v>1044.894380485709</v>
       </c>
       <c r="AR58">
-        <v>41.24237836980038</v>
+        <v>16.57874601441551</v>
       </c>
       <c r="AS58">
-        <v>142.860158745302</v>
+        <v>144.0588180681407</v>
       </c>
       <c r="AT58">
-        <v>6.248127858621139</v>
+        <v>2.692124076960105</v>
       </c>
       <c r="AU58">
-        <v>195.0795492761155</v>
+        <v>88.72184983135517</v>
       </c>
       <c r="AV58">
-        <v>0</v>
+        <v>26.73589433472807</v>
       </c>
       <c r="AW58">
-        <v>0</v>
+        <v>4.533547030410355</v>
       </c>
     </row>
     <row r="59" spans="1:49">
@@ -9177,22 +9177,22 @@
         <v>76</v>
       </c>
       <c r="S59">
-        <v>276.2894723262351</v>
+        <v>208.095437878088</v>
       </c>
       <c r="T59">
         <v>6.989583333333333</v>
       </c>
       <c r="U59">
-        <v>574.8136145999997</v>
+        <v>543.5670813000015</v>
       </c>
       <c r="V59" t="s">
         <v>135</v>
       </c>
       <c r="W59">
-        <v>276.2894723262351</v>
+        <v>208.095437878088</v>
       </c>
       <c r="X59">
-        <v>258.2894723262351</v>
+        <v>190.095437878088</v>
       </c>
       <c r="Y59">
         <v>18</v>
@@ -9213,19 +9213,19 @@
         <v>0</v>
       </c>
       <c r="AE59">
-        <v>0.1331143208633404</v>
+        <v>0.1002783120768704</v>
       </c>
       <c r="AF59">
-        <v>0.1331143208633404</v>
+        <v>0.1002783120768704</v>
       </c>
       <c r="AG59">
-        <v>0.1244420477022736</v>
+        <v>0.09160436114460092</v>
       </c>
       <c r="AI59">
-        <v>121.3798571040772</v>
+        <v>53.3152650299108</v>
       </c>
       <c r="AJ59">
-        <v>136.9096152221578</v>
+        <v>141.3364736257311</v>
       </c>
       <c r="AL59">
         <v>49.07302533532042</v>
@@ -9234,34 +9234,34 @@
         <v>1655.363120119227</v>
       </c>
       <c r="AN59">
-        <v>420.2172572158523</v>
+        <v>419.8157851516168</v>
       </c>
       <c r="AO59">
-        <v>2075.58037733508</v>
+        <v>2075.178905270844</v>
       </c>
       <c r="AP59">
-        <v>1073.05586069333</v>
+        <v>1073.036331832437</v>
       </c>
       <c r="AQ59">
-        <v>1071.104607974535</v>
+        <v>1045.240365307721</v>
       </c>
       <c r="AR59">
-        <v>43.18890320444747</v>
+        <v>16.88622000491036</v>
       </c>
       <c r="AS59">
-        <v>143.4564627667079</v>
+        <v>144.0808354647807</v>
       </c>
       <c r="AT59">
-        <v>6.546847544550103</v>
+        <v>2.744361839049643</v>
       </c>
       <c r="AU59">
-        <v>202.2997618401287</v>
+        <v>88.85877504985135</v>
       </c>
       <c r="AV59">
-        <v>0</v>
+        <v>26.87008104885432</v>
       </c>
       <c r="AW59">
-        <v>0</v>
+        <v>4.556300777553849</v>
       </c>
     </row>
     <row r="60" spans="1:49">
@@ -9320,22 +9320,22 @@
         <v>76</v>
       </c>
       <c r="S60">
-        <v>265.1264046855317</v>
+        <v>208.1278242362359</v>
       </c>
       <c r="T60">
         <v>6.989583333333333</v>
       </c>
       <c r="U60">
-        <v>509.7219130000012</v>
+        <v>470.7571793999996</v>
       </c>
       <c r="V60" t="s">
         <v>136</v>
       </c>
       <c r="W60">
-        <v>265.1264046855317</v>
+        <v>208.1278242362359</v>
       </c>
       <c r="X60">
-        <v>247.1264046855317</v>
+        <v>190.1278242362359</v>
       </c>
       <c r="Y60">
         <v>18</v>
@@ -9356,19 +9356,19 @@
         <v>0</v>
       </c>
       <c r="AE60">
-        <v>0.1277360335358046</v>
+        <v>0.1002939186147287</v>
       </c>
       <c r="AF60">
-        <v>0.1277360335358046</v>
+        <v>0.1002939186147287</v>
       </c>
       <c r="AG60">
-        <v>0.1190637603747378</v>
+        <v>0.09161996768245925</v>
       </c>
       <c r="AI60">
-        <v>109.4820695413411</v>
+        <v>53.31526502991068</v>
       </c>
       <c r="AJ60">
-        <v>137.6443351441906</v>
+        <v>141.368859983879</v>
       </c>
       <c r="AL60">
         <v>49.07302533532042</v>
@@ -9377,34 +9377,34 @@
         <v>1655.363120119227</v>
       </c>
       <c r="AN60">
-        <v>420.2172572158521</v>
+        <v>419.8157851516168</v>
       </c>
       <c r="AO60">
-        <v>2075.580377335079</v>
+        <v>2075.178905270844</v>
       </c>
       <c r="AP60">
-        <v>1073.05586069333</v>
+        <v>1073.036331832437</v>
       </c>
       <c r="AQ60">
-        <v>1071.808357870821</v>
+        <v>1045.192023779009</v>
       </c>
       <c r="AR60">
-        <v>43.85146983204491</v>
+        <v>16.83787847619827</v>
       </c>
       <c r="AS60">
-        <v>143.778214528134</v>
+        <v>144.1094727613489</v>
       </c>
       <c r="AT60">
-        <v>6.133879383943311</v>
+        <v>2.740612777469905</v>
       </c>
       <c r="AU60">
-        <v>182.4701159022351</v>
+        <v>88.85877504985113</v>
       </c>
       <c r="AV60">
-        <v>0</v>
+        <v>26.87008104885411</v>
       </c>
       <c r="AW60">
-        <v>0</v>
+        <v>4.556300777553814</v>
       </c>
     </row>
     <row r="61" spans="1:49">
@@ -9463,22 +9463,22 @@
         <v>77</v>
       </c>
       <c r="S61">
-        <v>264.7905522741866</v>
+        <v>264.7925854115887</v>
       </c>
       <c r="T61">
         <v>6.989583333333333</v>
       </c>
       <c r="U61">
-        <v>314.1839398000011</v>
+        <v>298.4611062000004</v>
       </c>
       <c r="V61" t="s">
         <v>137</v>
       </c>
       <c r="W61">
-        <v>264.7905522741866</v>
+        <v>264.7925854115887</v>
       </c>
       <c r="X61">
-        <v>246.7905522741866</v>
+        <v>246.7925854115887</v>
       </c>
       <c r="Y61">
         <v>18</v>
@@ -9499,19 +9499,19 @@
         <v>0</v>
       </c>
       <c r="AE61">
-        <v>0.1276031109214707</v>
+        <v>0.1276040906945601</v>
       </c>
       <c r="AF61">
-        <v>0.1276031109214707</v>
+        <v>0.1276040906945601</v>
       </c>
       <c r="AG61">
-        <v>0.1189288739562178</v>
+        <v>0.1189298537293072</v>
       </c>
       <c r="AI61">
-        <v>61.99078563268242</v>
+        <v>61.99096515060504</v>
       </c>
       <c r="AJ61">
-        <v>184.7997666415042</v>
+        <v>184.8016202609836</v>
       </c>
       <c r="AL61">
         <v>49.07302533532042</v>
@@ -9526,22 +9526,22 @@
         <v>2075.110476241787</v>
       </c>
       <c r="AP61">
-        <v>1073.05586069333</v>
+        <v>1073.036331832437</v>
       </c>
       <c r="AQ61">
-        <v>1013.472487978935</v>
+        <v>1013.478363413044</v>
       </c>
       <c r="AR61">
-        <v>5.703933861601518</v>
+        <v>5.690280434817359</v>
       </c>
       <c r="AS61">
-        <v>185.2481479357133</v>
+        <v>185.2489136425533</v>
       </c>
       <c r="AT61">
-        <v>0.4483812942090601</v>
+        <v>0.4472933815696934</v>
       </c>
       <c r="AU61">
-        <v>103.3179760544707</v>
+        <v>103.3182752510084</v>
       </c>
       <c r="AV61">
         <v>0</v>
@@ -9606,22 +9606,22 @@
         <v>76</v>
       </c>
       <c r="S62">
-        <v>292.1446828797968</v>
+        <v>292.313597099972</v>
       </c>
       <c r="T62">
         <v>6.989583333333333</v>
       </c>
       <c r="U62">
-        <v>509.3533396000003</v>
+        <v>472.1462264000002</v>
       </c>
       <c r="V62" t="s">
         <v>138</v>
       </c>
       <c r="W62">
-        <v>292.1446828797968</v>
+        <v>292.313597099972</v>
       </c>
       <c r="X62">
-        <v>274.1446828797968</v>
+        <v>274.313597099972</v>
       </c>
       <c r="Y62">
         <v>18</v>
@@ -9642,19 +9642,19 @@
         <v>0</v>
       </c>
       <c r="AE62">
-        <v>0.1333003772842494</v>
+        <v>0.1333731409150035</v>
       </c>
       <c r="AF62">
-        <v>0.1333003772842494</v>
+        <v>0.1333731409150035</v>
       </c>
       <c r="AG62">
-        <v>0.1250873002312478</v>
+        <v>0.1251603291940044</v>
       </c>
       <c r="AI62">
-        <v>73.13793483448227</v>
+        <v>73.15297604241701</v>
       </c>
       <c r="AJ62">
-        <v>201.0067480453146</v>
+        <v>201.1606210575549</v>
       </c>
       <c r="AL62">
         <v>50.93293591654248</v>
@@ -9663,28 +9663,28 @@
         <v>1759.634707600597</v>
       </c>
       <c r="AN62">
-        <v>431.9921192074644</v>
+        <v>432.0629242806115</v>
       </c>
       <c r="AO62">
-        <v>2191.626826808061</v>
+        <v>2191.697631881209</v>
       </c>
       <c r="AP62">
-        <v>768.0697689373566</v>
+        <v>768.0557906085266</v>
       </c>
       <c r="AQ62">
-        <v>1453.272095662205</v>
+        <v>1453.128156199814</v>
       </c>
       <c r="AR62">
-        <v>7.0856304454651</v>
+        <v>6.901576301902486</v>
       </c>
       <c r="AS62">
-        <v>202.103158835994</v>
+        <v>202.2342089903818</v>
       </c>
       <c r="AT62">
-        <v>1.096410790679408</v>
+        <v>1.073587932826923</v>
       </c>
       <c r="AU62">
-        <v>121.8965580574705</v>
+        <v>121.9216267373617</v>
       </c>
       <c r="AV62">
         <v>0</v>
@@ -9749,22 +9749,22 @@
         <v>76</v>
       </c>
       <c r="S63">
-        <v>356.4973345312029</v>
+        <v>292.3038474896806</v>
       </c>
       <c r="T63">
         <v>6.989583333333333</v>
       </c>
       <c r="U63">
-        <v>599.3927641000009</v>
+        <v>571.901423700001</v>
       </c>
       <c r="V63" t="s">
         <v>139</v>
       </c>
       <c r="W63">
-        <v>356.4973345312029</v>
+        <v>292.3038474896806</v>
       </c>
       <c r="X63">
-        <v>338.4973345312029</v>
+        <v>274.3038474896806</v>
       </c>
       <c r="Y63">
         <v>18</v>
@@ -9785,19 +9785,19 @@
         <v>0</v>
       </c>
       <c r="AE63">
-        <v>0.16251184099848</v>
+        <v>0.133368692486466</v>
       </c>
       <c r="AF63">
-        <v>0.16251184099848</v>
+        <v>0.133368692486466</v>
       </c>
       <c r="AG63">
-        <v>0.1543064132024508</v>
+        <v>0.1251558807654669</v>
       </c>
       <c r="AI63">
-        <v>143.9974164782475</v>
+        <v>73.15563472282624</v>
       </c>
       <c r="AJ63">
-        <v>194.4999180529554</v>
+        <v>201.1482127668544</v>
       </c>
       <c r="AL63">
         <v>50.93293591654248</v>
@@ -9806,28 +9806,28 @@
         <v>1759.634707600597</v>
       </c>
       <c r="AN63">
-        <v>434.0351957176313</v>
+        <v>432.0629242806112</v>
       </c>
       <c r="AO63">
-        <v>2193.669903318228</v>
+        <v>2191.697631881208</v>
       </c>
       <c r="AP63">
-        <v>768.0697689373566</v>
+        <v>768.0557906085266</v>
       </c>
       <c r="AQ63">
-        <v>1471.027939973493</v>
+        <v>1453.128156199813</v>
       </c>
       <c r="AR63">
-        <v>19.85174644291985</v>
+        <v>6.901576301902486</v>
       </c>
       <c r="AS63">
-        <v>197.0357764989774</v>
+        <v>202.2218006996813</v>
       </c>
       <c r="AT63">
-        <v>2.535858446022026</v>
+        <v>1.073587932826923</v>
       </c>
       <c r="AU63">
-        <v>239.9956941304125</v>
+        <v>121.9260578713771</v>
       </c>
       <c r="AV63">
         <v>0</v>
@@ -9892,22 +9892,22 @@
         <v>76</v>
       </c>
       <c r="S64">
-        <v>362.8073538618297</v>
+        <v>292.2458128244842</v>
       </c>
       <c r="T64">
         <v>6.989583333333333</v>
       </c>
       <c r="U64">
-        <v>612.0313198999993</v>
+        <v>564.6098180999998</v>
       </c>
       <c r="V64" t="s">
         <v>140</v>
       </c>
       <c r="W64">
-        <v>362.8073538618297</v>
+        <v>292.2458128244842</v>
       </c>
       <c r="X64">
-        <v>344.8073538618297</v>
+        <v>274.2458128244842</v>
       </c>
       <c r="Y64">
         <v>18</v>
@@ -9928,19 +9928,19 @@
         <v>0</v>
       </c>
       <c r="AE64">
-        <v>0.1653883081100915</v>
+        <v>0.1333422131654355</v>
       </c>
       <c r="AF64">
-        <v>0.1653883081100915</v>
+        <v>0.1333422131654355</v>
       </c>
       <c r="AG64">
-        <v>0.1571828803140624</v>
+        <v>0.1251294014444363</v>
       </c>
       <c r="AI64">
-        <v>149.8173650664529</v>
+        <v>73.15297604241701</v>
       </c>
       <c r="AJ64">
-        <v>194.9899887953768</v>
+        <v>201.0928367820672</v>
       </c>
       <c r="AL64">
         <v>50.93293591654248</v>
@@ -9949,28 +9949,28 @@
         <v>1759.634707600597</v>
       </c>
       <c r="AN64">
-        <v>434.035195717631</v>
+        <v>432.0629242806115</v>
       </c>
       <c r="AO64">
-        <v>2193.669903318228</v>
+        <v>2191.697631881209</v>
       </c>
       <c r="AP64">
-        <v>768.0697689373566</v>
+        <v>768.0557906085266</v>
       </c>
       <c r="AQ64">
-        <v>1469.113576765882</v>
+        <v>1453.128156199815</v>
       </c>
       <c r="AR64">
-        <v>17.92500405092963</v>
+        <v>6.901576301902486</v>
       </c>
       <c r="AS64">
-        <v>197.5133266614674</v>
+        <v>202.1664247148941</v>
       </c>
       <c r="AT64">
-        <v>2.523337866090617</v>
+        <v>1.073587932826923</v>
       </c>
       <c r="AU64">
-        <v>249.6956084440882</v>
+        <v>121.9216267373617</v>
       </c>
       <c r="AV64">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>76</v>
       </c>
       <c r="S65">
-        <v>359.0512857010535</v>
+        <v>292.21666177444</v>
       </c>
       <c r="T65">
         <v>6.989583333333333</v>
       </c>
       <c r="U65">
-        <v>525.8112055999991</v>
+        <v>524.833869</v>
       </c>
       <c r="V65" t="s">
         <v>141</v>
       </c>
       <c r="W65">
-        <v>359.0512857010535</v>
+        <v>292.21666177444</v>
       </c>
       <c r="X65">
-        <v>341.0512857010535</v>
+        <v>274.21666177444</v>
       </c>
       <c r="Y65">
         <v>18</v>
@@ -10071,19 +10071,19 @@
         <v>0</v>
       </c>
       <c r="AE65">
-        <v>0.1636760777717464</v>
+        <v>0.1333289124940198</v>
       </c>
       <c r="AF65">
-        <v>0.1636760777717464</v>
+        <v>0.1333289124940198</v>
       </c>
       <c r="AG65">
-        <v>0.1554706499757172</v>
+        <v>0.1251161007730207</v>
       </c>
       <c r="AI65">
-        <v>145.1277768657824</v>
+        <v>73.15297604241701</v>
       </c>
       <c r="AJ65">
-        <v>195.9235088352711</v>
+        <v>201.063685732023</v>
       </c>
       <c r="AL65">
         <v>50.93293591654248</v>
@@ -10092,34 +10092,34 @@
         <v>1759.634707600597</v>
       </c>
       <c r="AN65">
-        <v>434.035195717631</v>
+        <v>432.0629242806114</v>
       </c>
       <c r="AO65">
-        <v>2193.669903318228</v>
+        <v>2191.697631881208</v>
       </c>
       <c r="AP65">
-        <v>768.0697689373566</v>
+        <v>768.0557906085266</v>
       </c>
       <c r="AQ65">
-        <v>1473.093037314472</v>
+        <v>1453.128156199815</v>
       </c>
       <c r="AR65">
-        <v>22.23207970896792</v>
+        <v>6.901576301902486</v>
       </c>
       <c r="AS65">
-        <v>199.0126016473654</v>
+        <v>202.1372736648499</v>
       </c>
       <c r="AT65">
-        <v>3.08909281209428</v>
+        <v>1.073587932826923</v>
       </c>
       <c r="AU65">
-        <v>241.8796281096374</v>
+        <v>121.9216267373617</v>
       </c>
       <c r="AV65">
-        <v>1.4210854715202E-14</v>
+        <v>0</v>
       </c>
       <c r="AW65">
-        <v>2.409703501483871E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:49">
@@ -10178,22 +10178,22 @@
         <v>77</v>
       </c>
       <c r="S66">
-        <v>366.2302122320392</v>
+        <v>366.2319392661828</v>
       </c>
       <c r="T66">
         <v>6.989583333333333</v>
       </c>
       <c r="U66">
-        <v>335.0320986000006</v>
+        <v>336.8523390999999</v>
       </c>
       <c r="V66" t="s">
         <v>142</v>
       </c>
       <c r="W66">
-        <v>366.2302122320392</v>
+        <v>366.2319392661828</v>
       </c>
       <c r="X66">
-        <v>348.2302122320392</v>
+        <v>348.2319392661828</v>
       </c>
       <c r="Y66">
         <v>18</v>
@@ -10214,19 +10214,19 @@
         <v>0</v>
       </c>
       <c r="AE66">
-        <v>0.1668893241200188</v>
+        <v>0.1668901111210671</v>
       </c>
       <c r="AF66">
-        <v>0.1668893241200188</v>
+        <v>0.1668901111210671</v>
       </c>
       <c r="AG66">
-        <v>0.1586868117826231</v>
+        <v>0.1586875987836715</v>
       </c>
       <c r="AI66">
-        <v>92.63590352234648</v>
+        <v>92.63606937249106</v>
       </c>
       <c r="AJ66">
-        <v>255.5943087096927</v>
+        <v>255.5958698936917</v>
       </c>
       <c r="AL66">
         <v>50.93293591654248</v>
@@ -10241,22 +10241,22 @@
         <v>2194.449610022172</v>
       </c>
       <c r="AP66">
-        <v>768.0697689373566</v>
+        <v>768.0557906085266</v>
       </c>
       <c r="AQ66">
-        <v>1432.418047857066</v>
+        <v>1432.426089777583</v>
       </c>
       <c r="AR66">
-        <v>2.990308663610921</v>
+        <v>2.984372255296983</v>
       </c>
       <c r="AS66">
-        <v>255.8881264748549</v>
+        <v>255.8892363488461</v>
       </c>
       <c r="AT66">
-        <v>0.2938177651622244</v>
+        <v>0.2933664551543878</v>
       </c>
       <c r="AU66">
-        <v>154.3931725372441</v>
+        <v>154.3934489541518</v>
       </c>
       <c r="AV66">
         <v>0</v>
@@ -10321,22 +10321,22 @@
         <v>76</v>
       </c>
       <c r="S67">
-        <v>251.9050394051125</v>
+        <v>252.5219478835839</v>
       </c>
       <c r="T67">
         <v>6.989583333333333</v>
       </c>
       <c r="U67">
-        <v>658.7334437000009</v>
+        <v>556.4785102000005</v>
       </c>
       <c r="V67" t="s">
         <v>143</v>
       </c>
       <c r="W67">
-        <v>251.9050394051125</v>
+        <v>252.5219478835839</v>
       </c>
       <c r="X67">
-        <v>233.9050394051125</v>
+        <v>234.5219478835839</v>
       </c>
       <c r="Y67">
         <v>18</v>
@@ -10357,19 +10357,19 @@
         <v>0</v>
       </c>
       <c r="AE67">
-        <v>0.1059140380672382</v>
+        <v>0.106156209718775</v>
       </c>
       <c r="AF67">
-        <v>0.1059140380672382</v>
+        <v>0.106156209718775</v>
       </c>
       <c r="AG67">
-        <v>0.09834589774851935</v>
+        <v>0.09858929606650566</v>
       </c>
       <c r="AI67">
-        <v>62.96179404120846</v>
+        <v>62.96196291376261</v>
       </c>
       <c r="AJ67">
-        <v>186.8183011048199</v>
+        <v>187.10421391491</v>
       </c>
       <c r="AL67">
         <v>65.09687034277198</v>
@@ -10378,34 +10378,34 @@
         <v>1801.057316244411</v>
       </c>
       <c r="AN67">
-        <v>577.3341038352746</v>
+        <v>577.7196630067822</v>
       </c>
       <c r="AO67">
-        <v>2378.391420079686</v>
+        <v>2378.776979251194</v>
       </c>
       <c r="AP67">
-        <v>1090.775895942013</v>
+        <v>1090.756044588958</v>
       </c>
       <c r="AQ67">
-        <v>1330.599574735851</v>
+        <v>1331.439365268265</v>
       </c>
       <c r="AR67">
-        <v>6.856777388412794</v>
+        <v>7.715219320381828</v>
       </c>
       <c r="AS67">
-        <v>187.6289813932832</v>
+        <v>188.0425127113422</v>
       </c>
       <c r="AT67">
-        <v>0.8106802884632598</v>
+        <v>0.9382987964321683</v>
       </c>
       <c r="AU67">
         <v>105.2204511433296</v>
       </c>
       <c r="AV67">
-        <v>93.62069258353505</v>
+        <v>91.66969258353505</v>
       </c>
       <c r="AW67">
-        <v>15.87505574091591</v>
+        <v>15.54422894508879</v>
       </c>
     </row>
     <row r="68" spans="1:49">
@@ -10464,22 +10464,22 @@
         <v>76</v>
       </c>
       <c r="S68">
-        <v>315.8390828745725</v>
+        <v>251.4601112746813</v>
       </c>
       <c r="T68">
         <v>6.989583333333333</v>
       </c>
       <c r="U68">
-        <v>693.8686221999997</v>
+        <v>719.5480162000003</v>
       </c>
       <c r="V68" t="s">
         <v>144</v>
       </c>
       <c r="W68">
-        <v>315.8390828745725</v>
+        <v>251.4601112746813</v>
       </c>
       <c r="X68">
-        <v>297.8390828745725</v>
+        <v>233.4601112746813</v>
       </c>
       <c r="Y68">
         <v>18</v>
@@ -10500,19 +10500,19 @@
         <v>0</v>
       </c>
       <c r="AE68">
-        <v>0.1327774337067982</v>
+        <v>0.1057545922837153</v>
       </c>
       <c r="AF68">
-        <v>0.1327774337067982</v>
+        <v>0.1057545922837153</v>
       </c>
       <c r="AG68">
-        <v>0.1252103087488287</v>
+        <v>0.09818447449661424</v>
       </c>
       <c r="AI68">
-        <v>117.7940647950376</v>
+        <v>62.96196291376261</v>
       </c>
       <c r="AJ68">
-        <v>180.0450180795348</v>
+        <v>187.288700703921</v>
       </c>
       <c r="AL68">
         <v>65.09687034277198</v>
@@ -10521,34 +10521,34 @@
         <v>1801.057316244411</v>
       </c>
       <c r="AN68">
-        <v>577.6532376288819</v>
+        <v>576.7128197329605</v>
       </c>
       <c r="AO68">
-        <v>2378.710553873293</v>
+        <v>2377.770135977372</v>
       </c>
       <c r="AP68">
-        <v>1090.775895942013</v>
+        <v>1090.756044588958</v>
       </c>
       <c r="AQ68">
-        <v>1337.543624315404</v>
+        <v>1331.36977637987</v>
       </c>
       <c r="AR68">
-        <v>24.84530563167678</v>
+        <v>7.5809001510554</v>
       </c>
       <c r="AS68">
-        <v>182.9154633054347</v>
+        <v>188.2175336563253</v>
       </c>
       <c r="AT68">
-        <v>2.870445225899936</v>
+        <v>0.9288329524042925</v>
       </c>
       <c r="AU68">
-        <v>198.586881154613</v>
+        <v>105.2204511433296</v>
       </c>
       <c r="AV68">
-        <v>0</v>
+        <v>99.01969258353505</v>
       </c>
       <c r="AW68">
-        <v>0</v>
+        <v>16.79055234300235</v>
       </c>
     </row>
     <row r="69" spans="1:49">
@@ -10607,22 +10607,22 @@
         <v>76</v>
       </c>
       <c r="S69">
-        <v>320.4257748684605</v>
+        <v>251.4702177741929</v>
       </c>
       <c r="T69">
         <v>6.989583333333333</v>
       </c>
       <c r="U69">
-        <v>738.1339618000002</v>
+        <v>709.8241373000001</v>
       </c>
       <c r="V69" t="s">
         <v>145</v>
       </c>
       <c r="W69">
-        <v>320.4257748684605</v>
+        <v>251.4702177741929</v>
       </c>
       <c r="X69">
-        <v>302.4257748684605</v>
+        <v>233.4702177741929</v>
       </c>
       <c r="Y69">
         <v>18</v>
@@ -10643,19 +10643,19 @@
         <v>0</v>
       </c>
       <c r="AE69">
-        <v>0.1347056598991021</v>
+        <v>0.1057591998303537</v>
       </c>
       <c r="AF69">
-        <v>0.1347056598991021</v>
+        <v>0.1057591998303537</v>
       </c>
       <c r="AG69">
-        <v>0.1271385349411326</v>
+        <v>0.09818905647979698</v>
       </c>
       <c r="AI69">
-        <v>122.2781857724389</v>
+        <v>62.96196291376261</v>
       </c>
       <c r="AJ69">
-        <v>180.1475890960215</v>
+        <v>187.2988072034326</v>
       </c>
       <c r="AL69">
         <v>65.09687034277198</v>
@@ -10664,34 +10664,34 @@
         <v>1801.057316244411</v>
       </c>
       <c r="AN69">
-        <v>577.6532376288811</v>
+        <v>576.7047902916755</v>
       </c>
       <c r="AO69">
-        <v>2378.710553873292</v>
+        <v>2377.762106536087</v>
       </c>
       <c r="AP69">
-        <v>1090.775895942013</v>
+        <v>1090.756044588958</v>
       </c>
       <c r="AQ69">
-        <v>1324.798377412648</v>
+        <v>1331.590237905938</v>
       </c>
       <c r="AR69">
-        <v>11.74178806581971</v>
+        <v>7.809391118408428</v>
       </c>
       <c r="AS69">
-        <v>181.6233552642375</v>
+        <v>188.2417876436434</v>
       </c>
       <c r="AT69">
-        <v>1.475766168216</v>
+        <v>0.942980440210862</v>
       </c>
       <c r="AU69">
-        <v>204.5675924864542</v>
+        <v>105.2204511433296</v>
       </c>
       <c r="AV69">
-        <v>0</v>
+        <v>99.01969258353505</v>
       </c>
       <c r="AW69">
-        <v>0</v>
+        <v>16.79055234300235</v>
       </c>
     </row>
     <row r="70" spans="1:49">
@@ -10750,22 +10750,22 @@
         <v>76</v>
       </c>
       <c r="S70">
-        <v>315.1161089454966</v>
+        <v>252.4652099560321</v>
       </c>
       <c r="T70">
         <v>6.989583333333333</v>
       </c>
       <c r="U70">
-        <v>427.6701936999998</v>
+        <v>505.5488578999993</v>
       </c>
       <c r="V70" t="s">
         <v>146</v>
       </c>
       <c r="W70">
-        <v>315.1161089454966</v>
+        <v>252.4652099560321</v>
       </c>
       <c r="X70">
-        <v>297.1161089454966</v>
+        <v>234.4652099560321</v>
       </c>
       <c r="Y70">
         <v>18</v>
@@ -10786,19 +10786,19 @@
         <v>0</v>
       </c>
       <c r="AE70">
-        <v>0.1324734984810943</v>
+        <v>0.106132357996631</v>
       </c>
       <c r="AF70">
-        <v>0.1324734984810943</v>
+        <v>0.106132357996631</v>
       </c>
       <c r="AG70">
-        <v>0.1249063735231248</v>
+        <v>0.09856544434436158</v>
       </c>
       <c r="AI70">
-        <v>115.8903374184203</v>
+        <v>62.96196291376261</v>
       </c>
       <c r="AJ70">
-        <v>181.2257715270764</v>
+        <v>187.0474759873582</v>
       </c>
       <c r="AL70">
         <v>65.09687034277198</v>
@@ -10807,34 +10807,34 @@
         <v>1801.057316244411</v>
       </c>
       <c r="AN70">
-        <v>577.6532376288816</v>
+        <v>577.7196630067822</v>
       </c>
       <c r="AO70">
-        <v>2378.710553873293</v>
+        <v>2378.776979251194</v>
       </c>
       <c r="AP70">
-        <v>1090.775895942013</v>
+        <v>1090.756044588958</v>
       </c>
       <c r="AQ70">
-        <v>1331.021744460017</v>
+        <v>1330.90018447041</v>
       </c>
       <c r="AR70">
-        <v>18.41015640684192</v>
+        <v>7.176038522526551</v>
       </c>
       <c r="AS70">
-        <v>183.3299759226739</v>
+        <v>187.90767273129</v>
       </c>
       <c r="AT70">
-        <v>2.104204395597512</v>
+        <v>0.8601967439317445</v>
       </c>
       <c r="AU70">
-        <v>194.357925287677</v>
+        <v>105.2204511433296</v>
       </c>
       <c r="AV70">
-        <v>3.552713678800501E-15</v>
+        <v>91.66969258353505</v>
       </c>
       <c r="AW70">
-        <v>6.024258753709678E-16</v>
+        <v>15.54422894508879</v>
       </c>
     </row>
     <row r="71" spans="1:49">
@@ -10893,22 +10893,22 @@
         <v>77</v>
       </c>
       <c r="S71">
-        <v>345.0277741062988</v>
+        <v>345.0300211744051</v>
       </c>
       <c r="T71">
         <v>6.989583333333333</v>
       </c>
       <c r="U71">
-        <v>228.1254551000002</v>
+        <v>185.920299899999</v>
       </c>
       <c r="V71" t="s">
         <v>147</v>
       </c>
       <c r="W71">
-        <v>345.0277741062988</v>
+        <v>345.0300211744051</v>
       </c>
       <c r="X71">
-        <v>327.0277741062988</v>
+        <v>327.0300211744051</v>
       </c>
       <c r="Y71">
         <v>18</v>
@@ -10929,19 +10929,19 @@
         <v>0</v>
       </c>
       <c r="AE71">
-        <v>0.1450623881934377</v>
+        <v>0.1450633329436589</v>
       </c>
       <c r="AF71">
-        <v>0.1450623881934377</v>
+        <v>0.1450633329436589</v>
       </c>
       <c r="AG71">
-        <v>0.1374945250141754</v>
+        <v>0.1374954697643967</v>
       </c>
       <c r="AI71">
         <v>87.39010388411526</v>
       </c>
       <c r="AJ71">
-        <v>239.6376702221836</v>
+        <v>239.6399172902898</v>
       </c>
       <c r="AL71">
         <v>65.09687034277198</v>
@@ -10956,19 +10956,19 @@
         <v>2378.478518127052</v>
       </c>
       <c r="AP71">
-        <v>1090.775895942013</v>
+        <v>1090.756044588958</v>
       </c>
       <c r="AQ71">
-        <v>1295.804276368995</v>
+        <v>1295.817412909665</v>
       </c>
       <c r="AR71">
-        <v>4.332526801046059</v>
+        <v>4.32581198865999</v>
       </c>
       <c r="AS71">
-        <v>240.0401904513459</v>
+        <v>240.0419218382086</v>
       </c>
       <c r="AT71">
-        <v>0.4025202291623723</v>
+        <v>0.4020045479187498</v>
       </c>
       <c r="AU71">
         <v>147.1478584517549</v>
